--- a/teaching/traditional_assets/database/data/mauritius/mauritius_chemical_specialty.xlsx
+++ b/teaching/traditional_assets/database/data/mauritius/mauritius_chemical_specialty.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="earnings_debt" sheetId="1" r:id="rId1"/>
+    <sheet name="cost_capital" sheetId="2" r:id="rId2"/>
+    <sheet name="muse_mcfi_n0000" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -351,7 +353,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ3"/>
+  <dimension ref="A1:AQ4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +584,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,43 +593,43 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.0265</v>
+        <v>0.0235</v>
       </c>
       <c r="G2">
-        <v>-0.06958333333333333</v>
+        <v>-0.09841405915130731</v>
       </c>
       <c r="H2">
-        <v>-0.06958333333333333</v>
+        <v>-0.09841405915130731</v>
       </c>
       <c r="I2">
-        <v>-0.1983333333333333</v>
+        <v>-0.001843120445777968</v>
       </c>
       <c r="J2">
-        <v>-0.1983333333333333</v>
+        <v>-0.001382340334333476</v>
       </c>
       <c r="K2">
-        <v>-3.53</v>
+        <v>-4.282999999999999</v>
       </c>
       <c r="L2">
-        <v>-0.1470833333333333</v>
+        <v>-0.1835833690527218</v>
       </c>
       <c r="M2">
-        <v>0.481</v>
+        <v>0.466</v>
       </c>
       <c r="N2">
-        <v>0.05719381688466112</v>
+        <v>0.0504875406283857</v>
       </c>
       <c r="O2">
-        <v>-0.1362606232294618</v>
+        <v>-0.1088022414195658</v>
       </c>
       <c r="P2">
-        <v>0.481</v>
+        <v>0.466</v>
       </c>
       <c r="Q2">
-        <v>0.05719381688466112</v>
+        <v>0.0504875406283857</v>
       </c>
       <c r="R2">
-        <v>-0.1362606232294618</v>
+        <v>-0.1088022414195658</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -636,31 +638,31 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>0.252</v>
+        <v>0.63</v>
       </c>
       <c r="V2">
-        <v>0.02996432818073722</v>
+        <v>0.06825568797399784</v>
       </c>
       <c r="W2">
-        <v>-0.1582959641255605</v>
+        <v>-0.1345299369747899</v>
       </c>
       <c r="X2">
-        <v>0.08572191414329</v>
+        <v>0.07119320331320821</v>
       </c>
       <c r="Y2">
-        <v>-0.2440178782688505</v>
+        <v>-0.2057231402879981</v>
       </c>
       <c r="Z2">
-        <v>1.076233183856502</v>
+        <v>1.093508319662526</v>
       </c>
       <c r="AA2">
-        <v>-0.2134529147982063</v>
+        <v>-0.002028082899910206</v>
       </c>
       <c r="AB2">
-        <v>0.08572191414329</v>
+        <v>0.07119320331320821</v>
       </c>
       <c r="AC2">
-        <v>-0.2991748289414963</v>
+        <v>-0.07322128621311841</v>
       </c>
       <c r="AD2">
         <v>0</v>
@@ -672,7 +674,7 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>-0.252</v>
+        <v>-0.63</v>
       </c>
       <c r="AH2">
         <v>0</v>
@@ -681,28 +683,28 @@
         <v>0</v>
       </c>
       <c r="AJ2">
-        <v>-0.03088992400098063</v>
+        <v>-0.07325581395348837</v>
       </c>
       <c r="AK2">
-        <v>-0.01600203200406401</v>
+        <v>-0.04801829268292683</v>
       </c>
       <c r="AL2">
-        <v>0.063</v>
+        <v>1.083</v>
       </c>
       <c r="AM2">
-        <v>-0.53</v>
+        <v>0.641</v>
       </c>
       <c r="AN2">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>-75.55555555555556</v>
+        <v>-0.0397045244690674</v>
       </c>
       <c r="AP2">
-        <v>0.05793103448275862</v>
+        <v>-0.8923512747875355</v>
       </c>
       <c r="AQ2">
-        <v>8.981132075471697</v>
+        <v>-0.06708268330733229</v>
       </c>
     </row>
     <row r="3">
@@ -722,43 +724,43 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.0265</v>
+        <v>0.0297</v>
       </c>
       <c r="G3">
-        <v>-0.06958333333333333</v>
+        <v>-0.1194029850746268</v>
       </c>
       <c r="H3">
-        <v>-0.06958333333333333</v>
+        <v>-0.1194029850746268</v>
       </c>
       <c r="I3">
-        <v>-0.1983333333333333</v>
+        <v>0.0003980099502487562</v>
       </c>
       <c r="J3">
-        <v>-0.1983333333333333</v>
+        <v>0.0003980099502487562</v>
       </c>
       <c r="K3">
-        <v>-3.53</v>
+        <v>-4.27</v>
       </c>
       <c r="L3">
-        <v>-0.1470833333333333</v>
+        <v>-0.2124378109452736</v>
       </c>
       <c r="M3">
-        <v>0.481</v>
+        <v>0.387</v>
       </c>
       <c r="N3">
-        <v>0.05719381688466112</v>
+        <v>0.05389972144846797</v>
       </c>
       <c r="O3">
-        <v>-0.1362606232294618</v>
+        <v>-0.09063231850117097</v>
       </c>
       <c r="P3">
-        <v>0.481</v>
+        <v>0.387</v>
       </c>
       <c r="Q3">
-        <v>0.05719381688466112</v>
+        <v>0.05389972144846797</v>
       </c>
       <c r="R3">
-        <v>-0.1362606232294618</v>
+        <v>-0.09063231850117097</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -767,31 +769,31 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0.252</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>0.02996432818073722</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>-0.1582959641255605</v>
+        <v>-0.266875</v>
       </c>
       <c r="X3">
-        <v>0.08572191414329</v>
+        <v>0.07119320331320821</v>
       </c>
       <c r="Y3">
-        <v>-0.2440178782688505</v>
+        <v>-0.3380682033132082</v>
       </c>
       <c r="Z3">
-        <v>1.076233183856502</v>
+        <v>1.276352552705106</v>
       </c>
       <c r="AA3">
-        <v>-0.2134529147982063</v>
+        <v>0.0005080010160020321</v>
       </c>
       <c r="AB3">
-        <v>0.08572191414329</v>
+        <v>0.07119320331320821</v>
       </c>
       <c r="AC3">
-        <v>-0.2991748289414963</v>
+        <v>-0.07068520229720618</v>
       </c>
       <c r="AD3">
         <v>0</v>
@@ -803,7 +805,7 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>-0.252</v>
+        <v>0</v>
       </c>
       <c r="AH3">
         <v>0</v>
@@ -812,28 +814,8877 @@
         <v>0</v>
       </c>
       <c r="AJ3">
-        <v>-0.03088992400098063</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>-0.01600203200406401</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>0.063</v>
+        <v>1.07</v>
       </c>
       <c r="AM3">
-        <v>-0.53</v>
+        <v>0.6280000000000001</v>
       </c>
       <c r="AN3">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>-75.55555555555556</v>
+        <v>0.007476635514018691</v>
       </c>
       <c r="AP3">
-        <v>0.05793103448275862</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>8.981132075471697</v>
+        <v>0.01273885350318471</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Mauritius</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Les Gaz Industriels Limited (MUSE:GIL.I0000)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Chemical (Specialty)</t>
+        </is>
+      </c>
+      <c r="D4">
+        <v>0.0173</v>
+      </c>
+      <c r="G4">
+        <v>0.03219814241486068</v>
+      </c>
+      <c r="H4">
+        <v>0.03219814241486068</v>
+      </c>
+      <c r="I4">
+        <v>-0.01578947368421053</v>
+      </c>
+      <c r="J4">
+        <v>-0.007894736842105263</v>
+      </c>
+      <c r="K4">
+        <v>-0.013</v>
+      </c>
+      <c r="L4">
+        <v>-0.004024767801857585</v>
+      </c>
+      <c r="M4">
+        <v>0.079</v>
+      </c>
+      <c r="N4">
+        <v>0.03853658536585367</v>
+      </c>
+      <c r="O4">
+        <v>-6.076923076923078</v>
+      </c>
+      <c r="P4">
+        <v>0.079</v>
+      </c>
+      <c r="Q4">
+        <v>0.03853658536585367</v>
+      </c>
+      <c r="R4">
+        <v>-6.076923076923078</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0.63</v>
+      </c>
+      <c r="V4">
+        <v>0.3073170731707318</v>
+      </c>
+      <c r="W4">
+        <v>-0.002184873949579832</v>
+      </c>
+      <c r="X4">
+        <v>0.07119320331320821</v>
+      </c>
+      <c r="Y4">
+        <v>-0.07337807726278804</v>
+      </c>
+      <c r="Z4">
+        <v>0.578127796670843</v>
+      </c>
+      <c r="AA4">
+        <v>-0.004564166815822445</v>
+      </c>
+      <c r="AB4">
+        <v>0.07119320331320821</v>
+      </c>
+      <c r="AC4">
+        <v>-0.07575737012903065</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>-0.63</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>-0.4436619718309859</v>
+      </c>
+      <c r="AK4">
+        <v>-0.1337579617834395</v>
+      </c>
+      <c r="AL4">
+        <v>0.013</v>
+      </c>
+      <c r="AM4">
+        <v>0.013</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>-3.923076923076923</v>
+      </c>
+      <c r="AP4">
+        <v>-2.971698113207547</v>
+      </c>
+      <c r="AQ4">
+        <v>-3.923076923076923</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AQ2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>company_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>exchange_ticker</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>industry_group</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_capital</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_capital</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>actual_equity_value</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_equity_value</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>actual_enterprise_value</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_enterprise_value</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_capital</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_capital</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_rating</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_rating</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_equity</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>actual_beta</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_beta</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>country_default_spread</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>risk_free</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>market_capitalization</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_risk_premium</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>marginal_tax_rate</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_max_percentage</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_method</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_ebitda</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_depreciation</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>reported_capital_spending</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_debt</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_mv_debt</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>reported_interest_expense</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>reported_bv_debt</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>reported_cash</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>flag_bankruptcy</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>flag_refinanced</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>rating_firm_type</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>The Mauritius Chemical and Fertilizer Industry Limited (MUSE:MCFI.N0000)</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>MUSE:MCFI.N0000</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Chemical (Specialty)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Mauritius</t>
+        </is>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0.03</v>
+      </c>
+      <c r="G2">
+        <v>7.18</v>
+      </c>
+      <c r="H2">
+        <v>6.97664066044973</v>
+      </c>
+      <c r="I2">
+        <v>7.18</v>
+      </c>
+      <c r="J2">
+        <v>7.19204066044973</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0.2154</v>
+      </c>
+      <c r="M2">
+        <v>0.07119320331320821</v>
+      </c>
+      <c r="N2">
+        <v>0.07108958389829879</v>
+      </c>
+      <c r="O2">
+        <v>0.0283146667811402</v>
+      </c>
+      <c r="P2">
+        <v>0.01513</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="S2">
+        <v>0.07119320331320821</v>
+      </c>
+      <c r="T2">
+        <v>0.0728202926786585</v>
+      </c>
+      <c r="U2">
+        <v>0.987684052328752</v>
+      </c>
+      <c r="V2">
+        <v>1.0136489423642</v>
+      </c>
+      <c r="W2">
+        <v>10.95427373165159</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="AA2">
+        <v>7.18</v>
+      </c>
+      <c r="AB2">
+        <v>0.06266498195174562</v>
+      </c>
+      <c r="AC2">
+        <v>0.03331137268369437</v>
+      </c>
+      <c r="AD2">
+        <v>0.15</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>1</v>
+      </c>
+      <c r="AG2">
+        <v>0.494</v>
+      </c>
+      <c r="AH2">
+        <v>0.452</v>
+      </c>
+      <c r="AI2">
+        <v>3.26</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>1.07</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Z101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>debt_capital</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>cost_capital</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>equity_value</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>enterprise_value</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>debt_issued</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>debt</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>cash</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>marketcap</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>drop_ebitda</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ebitda</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>depreciation</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>ebit</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>interest_expense</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>taxable_income</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>taxes</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>net_income</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>operating_cash_flow</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>debt_equity</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>tax_rate</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>debt_rating</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.07119320331320821</v>
+      </c>
+      <c r="C2">
+        <v>7.18</v>
+      </c>
+      <c r="D2">
+        <v>7.18</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>7.18</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0.494</v>
+      </c>
+      <c r="K2">
+        <v>0.452</v>
+      </c>
+      <c r="L2">
+        <v>0.04199999999999998</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0.04199999999999998</v>
+      </c>
+      <c r="O2">
+        <v>0.006299999999999997</v>
+      </c>
+      <c r="P2">
+        <v>0.03569999999999998</v>
+      </c>
+      <c r="Q2">
+        <v>0.4877</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0.07119320331320821</v>
+      </c>
+      <c r="T2">
+        <v>0.9876840523287518</v>
+      </c>
+      <c r="U2">
+        <v>0.0162</v>
+      </c>
+      <c r="V2">
+        <v>0.15</v>
+      </c>
+      <c r="W2">
+        <v>0.01377</v>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y2">
+        <v>10000000</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>0.01</v>
+      </c>
+      <c r="B3">
+        <v>0.07114506350823839</v>
+      </c>
+      <c r="C3">
+        <v>7.113788866436159</v>
+      </c>
+      <c r="D3">
+        <v>7.185588866436158</v>
+      </c>
+      <c r="E3">
+        <v>0.0718</v>
+      </c>
+      <c r="F3">
+        <v>0.0718</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>7.18</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0.494</v>
+      </c>
+      <c r="K3">
+        <v>0.452</v>
+      </c>
+      <c r="L3">
+        <v>0.04199999999999998</v>
+      </c>
+      <c r="M3">
+        <v>0.00116316</v>
+      </c>
+      <c r="N3">
+        <v>0.04083683999999999</v>
+      </c>
+      <c r="O3">
+        <v>0.006125525999999997</v>
+      </c>
+      <c r="P3">
+        <v>0.03471131399999999</v>
+      </c>
+      <c r="Q3">
+        <v>0.486711314</v>
+      </c>
+      <c r="R3">
+        <v>0.0101010101010101</v>
+      </c>
+      <c r="S3">
+        <v>0.0717246096042812</v>
+      </c>
+      <c r="T3">
+        <v>0.9961641679295541</v>
+      </c>
+      <c r="U3">
+        <v>0.0162</v>
+      </c>
+      <c r="V3">
+        <v>0.15</v>
+      </c>
+      <c r="W3">
+        <v>0.01377</v>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y3">
+        <v>36.10853193025894</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>0.02</v>
+      </c>
+      <c r="B4">
+        <v>0.07109692370326857</v>
+      </c>
+      <c r="C4">
+        <v>7.047586440326477</v>
+      </c>
+      <c r="D4">
+        <v>7.191186440326478</v>
+      </c>
+      <c r="E4">
+        <v>0.1436</v>
+      </c>
+      <c r="F4">
+        <v>0.1436</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>7.18</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0.494</v>
+      </c>
+      <c r="K4">
+        <v>0.452</v>
+      </c>
+      <c r="L4">
+        <v>0.04199999999999998</v>
+      </c>
+      <c r="M4">
+        <v>0.00232632</v>
+      </c>
+      <c r="N4">
+        <v>0.03967367999999998</v>
+      </c>
+      <c r="O4">
+        <v>0.005951051999999997</v>
+      </c>
+      <c r="P4">
+        <v>0.03372262799999998</v>
+      </c>
+      <c r="Q4">
+        <v>0.485722628</v>
+      </c>
+      <c r="R4">
+        <v>0.02040816326530612</v>
+      </c>
+      <c r="S4">
+        <v>0.07226686092170263</v>
+      </c>
+      <c r="T4">
+        <v>1.004817347114046</v>
+      </c>
+      <c r="U4">
+        <v>0.0162</v>
+      </c>
+      <c r="V4">
+        <v>0.15</v>
+      </c>
+      <c r="W4">
+        <v>0.01377</v>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y4">
+        <v>18.05426596512947</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>0.03</v>
+      </c>
+      <c r="B5">
+        <v>0.07108958389829877</v>
+      </c>
+      <c r="C5">
+        <v>6.976640660449734</v>
+      </c>
+      <c r="D5">
+        <v>7.192040660449734</v>
+      </c>
+      <c r="E5">
+        <v>0.2154</v>
+      </c>
+      <c r="F5">
+        <v>0.2154</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>7.18</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0.494</v>
+      </c>
+      <c r="K5">
+        <v>0.452</v>
+      </c>
+      <c r="L5">
+        <v>0.04199999999999998</v>
+      </c>
+      <c r="M5">
+        <v>0.003834119999999999</v>
+      </c>
+      <c r="N5">
+        <v>0.03816587999999999</v>
+      </c>
+      <c r="O5">
+        <v>0.005724881999999998</v>
+      </c>
+      <c r="P5">
+        <v>0.03244099799999998</v>
+      </c>
+      <c r="Q5">
+        <v>0.484440998</v>
+      </c>
+      <c r="R5">
+        <v>0.03092783505154639</v>
+      </c>
+      <c r="S5">
+        <v>0.07282029267865853</v>
+      </c>
+      <c r="T5">
+        <v>1.013648942364198</v>
+      </c>
+      <c r="U5">
+        <v>0.0178</v>
+      </c>
+      <c r="V5">
+        <v>0.15</v>
+      </c>
+      <c r="W5">
+        <v>0.01513</v>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y5">
+        <v>10.95427373165159</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>0.04</v>
+      </c>
+      <c r="B6">
+        <v>0.07116724409332897</v>
+      </c>
+      <c r="C6">
+        <v>6.895812695998737</v>
+      </c>
+      <c r="D6">
+        <v>7.183012695998737</v>
+      </c>
+      <c r="E6">
+        <v>0.2872</v>
+      </c>
+      <c r="F6">
+        <v>0.2872</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>7.18</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0.494</v>
+      </c>
+      <c r="K6">
+        <v>0.452</v>
+      </c>
+      <c r="L6">
+        <v>0.04199999999999998</v>
+      </c>
+      <c r="M6">
+        <v>0.006059920000000001</v>
+      </c>
+      <c r="N6">
+        <v>0.03594007999999998</v>
+      </c>
+      <c r="O6">
+        <v>0.005391011999999996</v>
+      </c>
+      <c r="P6">
+        <v>0.03054906799999998</v>
+      </c>
+      <c r="Q6">
+        <v>0.482549068</v>
+      </c>
+      <c r="R6">
+        <v>0.04166666666666667</v>
+      </c>
+      <c r="S6">
+        <v>0.07338525426388434</v>
+      </c>
+      <c r="T6">
+        <v>1.022664529182062</v>
+      </c>
+      <c r="U6">
+        <v>0.0211</v>
+      </c>
+      <c r="V6">
+        <v>0.15</v>
+      </c>
+      <c r="W6">
+        <v>0.017935</v>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y6">
+        <v>6.930784564812733</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>0.05</v>
+      </c>
+      <c r="B7">
+        <v>0.07122450428835914</v>
+      </c>
+      <c r="C7">
+        <v>6.817370725867467</v>
+      </c>
+      <c r="D7">
+        <v>7.176370725867467</v>
+      </c>
+      <c r="E7">
+        <v>0.359</v>
+      </c>
+      <c r="F7">
+        <v>0.359</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>7.18</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0.494</v>
+      </c>
+      <c r="K7">
+        <v>0.452</v>
+      </c>
+      <c r="L7">
+        <v>0.04199999999999998</v>
+      </c>
+      <c r="M7">
+        <v>0.0081134</v>
+      </c>
+      <c r="N7">
+        <v>0.03388659999999998</v>
+      </c>
+      <c r="O7">
+        <v>0.005082989999999997</v>
+      </c>
+      <c r="P7">
+        <v>0.02880360999999999</v>
+      </c>
+      <c r="Q7">
+        <v>0.48080361</v>
+      </c>
+      <c r="R7">
+        <v>0.05263157894736843</v>
+      </c>
+      <c r="S7">
+        <v>0.07396210977722015</v>
+      </c>
+      <c r="T7">
+        <v>1.03186991782767</v>
+      </c>
+      <c r="U7">
+        <v>0.0226</v>
+      </c>
+      <c r="V7">
+        <v>0.15</v>
+      </c>
+      <c r="W7">
+        <v>0.01921</v>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y7">
+        <v>5.176621391771635</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>0.06</v>
+      </c>
+      <c r="B8">
+        <v>0.07579953289733177</v>
+      </c>
+      <c r="C8">
+        <v>6.251851447716647</v>
+      </c>
+      <c r="D8">
+        <v>6.682651447716647</v>
+      </c>
+      <c r="E8">
+        <v>0.4308</v>
+      </c>
+      <c r="F8">
+        <v>0.4308</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>7.18</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0.494</v>
+      </c>
+      <c r="K8">
+        <v>0.452</v>
+      </c>
+      <c r="L8">
+        <v>0.04199999999999998</v>
+      </c>
+      <c r="M8">
+        <v>0.0469572</v>
+      </c>
+      <c r="N8">
+        <v>-0.004957200000000016</v>
+      </c>
+      <c r="O8">
+        <v>-0.0007435800000000024</v>
+      </c>
+      <c r="P8">
+        <v>-0.004213620000000013</v>
+      </c>
+      <c r="Q8">
+        <v>0.44778638</v>
+      </c>
+      <c r="R8">
+        <v>0.06382978723404255</v>
+      </c>
+      <c r="S8">
+        <v>0.07461379810982667</v>
+      </c>
+      <c r="T8">
+        <v>1.042269479310163</v>
+      </c>
+      <c r="U8">
+        <v>0.109</v>
+      </c>
+      <c r="V8">
+        <v>0.134164728731696</v>
+      </c>
+      <c r="W8">
+        <v>0.09437604456824512</v>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y8">
+        <v>0.8944315248779736</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="B9">
+        <v>0.07909140930537101</v>
+      </c>
+      <c r="C9">
+        <v>5.864848432577149</v>
+      </c>
+      <c r="D9">
+        <v>6.367448432577149</v>
+      </c>
+      <c r="E9">
+        <v>0.5026</v>
+      </c>
+      <c r="F9">
+        <v>0.5026</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>7.18</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0.494</v>
+      </c>
+      <c r="K9">
+        <v>0.452</v>
+      </c>
+      <c r="L9">
+        <v>0.04199999999999998</v>
+      </c>
+      <c r="M9">
+        <v>0.07046452</v>
+      </c>
+      <c r="N9">
+        <v>-0.02846452000000002</v>
+      </c>
+      <c r="O9">
+        <v>-0.004269678000000003</v>
+      </c>
+      <c r="P9">
+        <v>-0.02419484200000002</v>
+      </c>
+      <c r="Q9">
+        <v>0.427805158</v>
+      </c>
+      <c r="R9">
+        <v>0.07526881720430109</v>
+      </c>
+      <c r="S9">
+        <v>0.07543531895836161</v>
+      </c>
+      <c r="T9">
+        <v>1.055379206991367</v>
+      </c>
+      <c r="U9">
+        <v>0.1402</v>
+      </c>
+      <c r="V9">
+        <v>0.08940669715766171</v>
+      </c>
+      <c r="W9">
+        <v>0.1276651810584958</v>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y9">
+        <v>0.5960446477177448</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>0.08</v>
+      </c>
+      <c r="B10">
+        <v>0.08040040930537101</v>
+      </c>
+      <c r="C10">
+        <v>5.675819993533356</v>
+      </c>
+      <c r="D10">
+        <v>6.250219993533356</v>
+      </c>
+      <c r="E10">
+        <v>0.5744</v>
+      </c>
+      <c r="F10">
+        <v>0.5744</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>7.18</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0.494</v>
+      </c>
+      <c r="K10">
+        <v>0.452</v>
+      </c>
+      <c r="L10">
+        <v>0.04199999999999998</v>
+      </c>
+      <c r="M10">
+        <v>0.08053088</v>
+      </c>
+      <c r="N10">
+        <v>-0.03853088000000002</v>
+      </c>
+      <c r="O10">
+        <v>-0.005779632000000002</v>
+      </c>
+      <c r="P10">
+        <v>-0.03275124800000002</v>
+      </c>
+      <c r="Q10">
+        <v>0.419248752</v>
+      </c>
+      <c r="R10">
+        <v>0.08695652173913043</v>
+      </c>
+      <c r="S10">
+        <v>0.0761541811209525</v>
+      </c>
+      <c r="T10">
+        <v>1.066850720110838</v>
+      </c>
+      <c r="U10">
+        <v>0.1402</v>
+      </c>
+      <c r="V10">
+        <v>0.07823086001295401</v>
+      </c>
+      <c r="W10">
+        <v>0.1292320334261838</v>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y10">
+        <v>0.5215390667530266</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>0.09</v>
+      </c>
+      <c r="B11">
+        <v>0.08571613503027052</v>
+      </c>
+      <c r="C11">
+        <v>5.169236747917159</v>
+      </c>
+      <c r="D11">
+        <v>5.815436747917159</v>
+      </c>
+      <c r="E11">
+        <v>0.6462</v>
+      </c>
+      <c r="F11">
+        <v>0.6462</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>7.18</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0.494</v>
+      </c>
+      <c r="K11">
+        <v>0.452</v>
+      </c>
+      <c r="L11">
+        <v>0.04199999999999998</v>
+      </c>
+      <c r="M11">
+        <v>0.11870694</v>
+      </c>
+      <c r="N11">
+        <v>-0.07670694000000002</v>
+      </c>
+      <c r="O11">
+        <v>-0.011506041</v>
+      </c>
+      <c r="P11">
+        <v>-0.06520089900000001</v>
+      </c>
+      <c r="Q11">
+        <v>0.386799101</v>
+      </c>
+      <c r="R11">
+        <v>0.0989010989010989</v>
+      </c>
+      <c r="S11">
+        <v>0.07698963995184155</v>
+      </c>
+      <c r="T11">
+        <v>1.080182868383575</v>
+      </c>
+      <c r="U11">
+        <v>0.1837</v>
+      </c>
+      <c r="V11">
+        <v>0.05307187599983621</v>
+      </c>
+      <c r="W11">
+        <v>0.1739506963788301</v>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y11">
+        <v>0.3538125066655747</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>0.1</v>
+      </c>
+      <c r="B12">
+        <v>0.08746013503027052</v>
+      </c>
+      <c r="C12">
+        <v>4.967675947421617</v>
+      </c>
+      <c r="D12">
+        <v>5.685675947421617</v>
+      </c>
+      <c r="E12">
+        <v>0.718</v>
+      </c>
+      <c r="F12">
+        <v>0.718</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>7.18</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0.494</v>
+      </c>
+      <c r="K12">
+        <v>0.452</v>
+      </c>
+      <c r="L12">
+        <v>0.04199999999999998</v>
+      </c>
+      <c r="M12">
+        <v>0.1318966</v>
+      </c>
+      <c r="N12">
+        <v>-0.08989660000000002</v>
+      </c>
+      <c r="O12">
+        <v>-0.01348449</v>
+      </c>
+      <c r="P12">
+        <v>-0.07641211000000002</v>
+      </c>
+      <c r="Q12">
+        <v>0.37558789</v>
+      </c>
+      <c r="R12">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="S12">
+        <v>0.07774174706241756</v>
+      </c>
+      <c r="T12">
+        <v>1.092184900254503</v>
+      </c>
+      <c r="U12">
+        <v>0.1837</v>
+      </c>
+      <c r="V12">
+        <v>0.04776468839985259</v>
+      </c>
+      <c r="W12">
+        <v>0.1749256267409471</v>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y12">
+        <v>0.3184312559990172</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>0.11</v>
+      </c>
+      <c r="B13">
+        <v>0.0892041350302705</v>
+      </c>
+      <c r="C13">
+        <v>4.771779505497221</v>
+      </c>
+      <c r="D13">
+        <v>5.56157950549722</v>
+      </c>
+      <c r="E13">
+        <v>0.7897999999999999</v>
+      </c>
+      <c r="F13">
+        <v>0.7897999999999999</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>7.18</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0.494</v>
+      </c>
+      <c r="K13">
+        <v>0.452</v>
+      </c>
+      <c r="L13">
+        <v>0.04199999999999998</v>
+      </c>
+      <c r="M13">
+        <v>0.14508626</v>
+      </c>
+      <c r="N13">
+        <v>-0.10308626</v>
+      </c>
+      <c r="O13">
+        <v>-0.015462939</v>
+      </c>
+      <c r="P13">
+        <v>-0.087623321</v>
+      </c>
+      <c r="Q13">
+        <v>0.364376679</v>
+      </c>
+      <c r="R13">
+        <v>0.1235955056179775</v>
+      </c>
+      <c r="S13">
+        <v>0.0785107554563773</v>
+      </c>
+      <c r="T13">
+        <v>1.104456640706801</v>
+      </c>
+      <c r="U13">
+        <v>0.1837</v>
+      </c>
+      <c r="V13">
+        <v>0.04342244399986599</v>
+      </c>
+      <c r="W13">
+        <v>0.1757232970372246</v>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y13">
+        <v>0.2894829599991067</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>0.12</v>
+      </c>
+      <c r="B14">
+        <v>0.09094813503027051</v>
+      </c>
+      <c r="C14">
+        <v>4.581184450913411</v>
+      </c>
+      <c r="D14">
+        <v>5.442784450913411</v>
+      </c>
+      <c r="E14">
+        <v>0.8615999999999999</v>
+      </c>
+      <c r="F14">
+        <v>0.8615999999999999</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>7.18</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0.494</v>
+      </c>
+      <c r="K14">
+        <v>0.452</v>
+      </c>
+      <c r="L14">
+        <v>0.04199999999999998</v>
+      </c>
+      <c r="M14">
+        <v>0.15827592</v>
+      </c>
+      <c r="N14">
+        <v>-0.11627592</v>
+      </c>
+      <c r="O14">
+        <v>-0.017441388</v>
+      </c>
+      <c r="P14">
+        <v>-0.098834532</v>
+      </c>
+      <c r="Q14">
+        <v>0.353165468</v>
+      </c>
+      <c r="R14">
+        <v>0.1363636363636364</v>
+      </c>
+      <c r="S14">
+        <v>0.07929724131383613</v>
+      </c>
+      <c r="T14">
+        <v>1.117007284351197</v>
+      </c>
+      <c r="U14">
+        <v>0.1837</v>
+      </c>
+      <c r="V14">
+        <v>0.03980390699987716</v>
+      </c>
+      <c r="W14">
+        <v>0.1763880222841226</v>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y14">
+        <v>0.2653593799991811</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>0.13</v>
+      </c>
+      <c r="B15">
+        <v>0.09269213503027052</v>
+      </c>
+      <c r="C15">
+        <v>4.395558176062102</v>
+      </c>
+      <c r="D15">
+        <v>5.328958176062102</v>
+      </c>
+      <c r="E15">
+        <v>0.9334</v>
+      </c>
+      <c r="F15">
+        <v>0.9334</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>7.18</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0.494</v>
+      </c>
+      <c r="K15">
+        <v>0.452</v>
+      </c>
+      <c r="L15">
+        <v>0.04199999999999998</v>
+      </c>
+      <c r="M15">
+        <v>0.17146558</v>
+      </c>
+      <c r="N15">
+        <v>-0.12946558</v>
+      </c>
+      <c r="O15">
+        <v>-0.019419837</v>
+      </c>
+      <c r="P15">
+        <v>-0.110045743</v>
+      </c>
+      <c r="Q15">
+        <v>0.341954257</v>
+      </c>
+      <c r="R15">
+        <v>0.1494252873563219</v>
+      </c>
+      <c r="S15">
+        <v>0.08010180730594919</v>
+      </c>
+      <c r="T15">
+        <v>1.129846448539142</v>
+      </c>
+      <c r="U15">
+        <v>0.1837</v>
+      </c>
+      <c r="V15">
+        <v>0.03674206799988661</v>
+      </c>
+      <c r="W15">
+        <v>0.1769504821084208</v>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y15">
+        <v>0.244947119999244</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>0.14</v>
+      </c>
+      <c r="B16">
+        <v>0.0944361350302705</v>
+      </c>
+      <c r="C16">
+        <v>4.214595326988112</v>
+      </c>
+      <c r="D16">
+        <v>5.219795326988113</v>
+      </c>
+      <c r="E16">
+        <v>1.0052</v>
+      </c>
+      <c r="F16">
+        <v>1.0052</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>7.18</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0.494</v>
+      </c>
+      <c r="K16">
+        <v>0.452</v>
+      </c>
+      <c r="L16">
+        <v>0.04199999999999998</v>
+      </c>
+      <c r="M16">
+        <v>0.18465524</v>
+      </c>
+      <c r="N16">
+        <v>-0.14265524</v>
+      </c>
+      <c r="O16">
+        <v>-0.02139828600000001</v>
+      </c>
+      <c r="P16">
+        <v>-0.121256954</v>
+      </c>
+      <c r="Q16">
+        <v>0.330743046</v>
+      </c>
+      <c r="R16">
+        <v>0.1627906976744186</v>
+      </c>
+      <c r="S16">
+        <v>0.08092508413508813</v>
+      </c>
+      <c r="T16">
+        <v>1.142984197940759</v>
+      </c>
+      <c r="U16">
+        <v>0.1837</v>
+      </c>
+      <c r="V16">
+        <v>0.03411763457132327</v>
+      </c>
+      <c r="W16">
+        <v>0.1774325905292479</v>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y16">
+        <v>0.2274508971421552</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>0.15</v>
+      </c>
+      <c r="B17">
+        <v>0.09618013503027051</v>
+      </c>
+      <c r="C17">
+        <v>4.038015067989947</v>
+      </c>
+      <c r="D17">
+        <v>5.115015067989947</v>
+      </c>
+      <c r="E17">
+        <v>1.077</v>
+      </c>
+      <c r="F17">
+        <v>1.077</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>7.18</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0.494</v>
+      </c>
+      <c r="K17">
+        <v>0.452</v>
+      </c>
+      <c r="L17">
+        <v>0.04199999999999998</v>
+      </c>
+      <c r="M17">
+        <v>0.1978449</v>
+      </c>
+      <c r="N17">
+        <v>-0.1558449</v>
+      </c>
+      <c r="O17">
+        <v>-0.023376735</v>
+      </c>
+      <c r="P17">
+        <v>-0.132468165</v>
+      </c>
+      <c r="Q17">
+        <v>0.319531835</v>
+      </c>
+      <c r="R17">
+        <v>0.1764705882352941</v>
+      </c>
+      <c r="S17">
+        <v>0.08176773218373623</v>
+      </c>
+      <c r="T17">
+        <v>1.156431070857709</v>
+      </c>
+      <c r="U17">
+        <v>0.1837</v>
+      </c>
+      <c r="V17">
+        <v>0.03184312559990173</v>
+      </c>
+      <c r="W17">
+        <v>0.177850417827298</v>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y17">
+        <v>0.2122875039993448</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>0.16</v>
+      </c>
+      <c r="B18">
+        <v>0.09792413503027049</v>
+      </c>
+      <c r="C18">
+        <v>3.865558669193756</v>
+      </c>
+      <c r="D18">
+        <v>5.014358669193756</v>
+      </c>
+      <c r="E18">
+        <v>1.1488</v>
+      </c>
+      <c r="F18">
+        <v>1.1488</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>7.18</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0.494</v>
+      </c>
+      <c r="K18">
+        <v>0.452</v>
+      </c>
+      <c r="L18">
+        <v>0.04199999999999998</v>
+      </c>
+      <c r="M18">
+        <v>0.21103456</v>
+      </c>
+      <c r="N18">
+        <v>-0.16903456</v>
+      </c>
+      <c r="O18">
+        <v>-0.025355184</v>
+      </c>
+      <c r="P18">
+        <v>-0.143679376</v>
+      </c>
+      <c r="Q18">
+        <v>0.308320624</v>
+      </c>
+      <c r="R18">
+        <v>0.1904761904761905</v>
+      </c>
+      <c r="S18">
+        <v>0.08263044328116166</v>
+      </c>
+      <c r="T18">
+        <v>1.170198107415539</v>
+      </c>
+      <c r="U18">
+        <v>0.1837</v>
+      </c>
+      <c r="V18">
+        <v>0.02985293024990787</v>
+      </c>
+      <c r="W18">
+        <v>0.1782160167130919</v>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y18">
+        <v>0.1990195349993857</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>0.17</v>
+      </c>
+      <c r="B19">
+        <v>0.0996681350302705</v>
+      </c>
+      <c r="C19">
+        <v>3.696987373469388</v>
+      </c>
+      <c r="D19">
+        <v>4.917587373469388</v>
+      </c>
+      <c r="E19">
+        <v>1.2206</v>
+      </c>
+      <c r="F19">
+        <v>1.2206</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>7.18</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0.494</v>
+      </c>
+      <c r="K19">
+        <v>0.452</v>
+      </c>
+      <c r="L19">
+        <v>0.04199999999999998</v>
+      </c>
+      <c r="M19">
+        <v>0.22422422</v>
+      </c>
+      <c r="N19">
+        <v>-0.18222422</v>
+      </c>
+      <c r="O19">
+        <v>-0.02733363300000001</v>
+      </c>
+      <c r="P19">
+        <v>-0.1548905870000001</v>
+      </c>
+      <c r="Q19">
+        <v>0.2971094129999999</v>
+      </c>
+      <c r="R19">
+        <v>0.2048192771084338</v>
+      </c>
+      <c r="S19">
+        <v>0.08351394259780216</v>
+      </c>
+      <c r="T19">
+        <v>1.18429687979404</v>
+      </c>
+      <c r="U19">
+        <v>0.1837</v>
+      </c>
+      <c r="V19">
+        <v>0.02809687552932505</v>
+      </c>
+      <c r="W19">
+        <v>0.178538603965263</v>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y19">
+        <v>0.1873125035288337</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>0.18</v>
+      </c>
+      <c r="B20">
+        <v>0.1014121350302705</v>
+      </c>
+      <c r="C20">
+        <v>3.532080505666222</v>
+      </c>
+      <c r="D20">
+        <v>4.824480505666222</v>
+      </c>
+      <c r="E20">
+        <v>1.2924</v>
+      </c>
+      <c r="F20">
+        <v>1.2924</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>7.18</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0.494</v>
+      </c>
+      <c r="K20">
+        <v>0.452</v>
+      </c>
+      <c r="L20">
+        <v>0.04199999999999998</v>
+      </c>
+      <c r="M20">
+        <v>0.23741388</v>
+      </c>
+      <c r="N20">
+        <v>-0.19541388</v>
+      </c>
+      <c r="O20">
+        <v>-0.029312082</v>
+      </c>
+      <c r="P20">
+        <v>-0.166101798</v>
+      </c>
+      <c r="Q20">
+        <v>0.285898202</v>
+      </c>
+      <c r="R20">
+        <v>0.2195121951219512</v>
+      </c>
+      <c r="S20">
+        <v>0.08441899067826318</v>
+      </c>
+      <c r="T20">
+        <v>1.198739524669577</v>
+      </c>
+      <c r="U20">
+        <v>0.1837</v>
+      </c>
+      <c r="V20">
+        <v>0.02653593799991811</v>
+      </c>
+      <c r="W20">
+        <v>0.178825348189415</v>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y20">
+        <v>0.1769062533327874</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>0.19</v>
+      </c>
+      <c r="B21">
+        <v>0.1031561350302705</v>
+      </c>
+      <c r="C21">
+        <v>3.370633792649878</v>
+      </c>
+      <c r="D21">
+        <v>4.734833792649878</v>
+      </c>
+      <c r="E21">
+        <v>1.3642</v>
+      </c>
+      <c r="F21">
+        <v>1.3642</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>7.18</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0.494</v>
+      </c>
+      <c r="K21">
+        <v>0.452</v>
+      </c>
+      <c r="L21">
+        <v>0.04199999999999998</v>
+      </c>
+      <c r="M21">
+        <v>0.25060354</v>
+      </c>
+      <c r="N21">
+        <v>-0.20860354</v>
+      </c>
+      <c r="O21">
+        <v>-0.031290531</v>
+      </c>
+      <c r="P21">
+        <v>-0.177313009</v>
+      </c>
+      <c r="Q21">
+        <v>0.274686991</v>
+      </c>
+      <c r="R21">
+        <v>0.2345679012345679</v>
+      </c>
+      <c r="S21">
+        <v>0.0853463856249084</v>
+      </c>
+      <c r="T21">
+        <v>1.21353877806056</v>
+      </c>
+      <c r="U21">
+        <v>0.1837</v>
+      </c>
+      <c r="V21">
+        <v>0.02513930968413295</v>
+      </c>
+      <c r="W21">
+        <v>0.1790819088110248</v>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y21">
+        <v>0.1675953978942196</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>0.2</v>
+      </c>
+      <c r="B22">
+        <v>0.1049001350302705</v>
+      </c>
+      <c r="C22">
+        <v>3.212457867220833</v>
+      </c>
+      <c r="D22">
+        <v>4.648457867220833</v>
+      </c>
+      <c r="E22">
+        <v>1.436</v>
+      </c>
+      <c r="F22">
+        <v>1.436</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>7.18</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0.494</v>
+      </c>
+      <c r="K22">
+        <v>0.452</v>
+      </c>
+      <c r="L22">
+        <v>0.04199999999999998</v>
+      </c>
+      <c r="M22">
+        <v>0.2637932</v>
+      </c>
+      <c r="N22">
+        <v>-0.2217932</v>
+      </c>
+      <c r="O22">
+        <v>-0.03326898</v>
+      </c>
+      <c r="P22">
+        <v>-0.18852422</v>
+      </c>
+      <c r="Q22">
+        <v>0.26347578</v>
+      </c>
+      <c r="R22">
+        <v>0.25</v>
+      </c>
+      <c r="S22">
+        <v>0.08629696544521975</v>
+      </c>
+      <c r="T22">
+        <v>1.228708012786317</v>
+      </c>
+      <c r="U22">
+        <v>0.1837</v>
+      </c>
+      <c r="V22">
+        <v>0.02388234419992629</v>
+      </c>
+      <c r="W22">
+        <v>0.1793128133704735</v>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y22">
+        <v>0.1592156279995086</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>0.21</v>
+      </c>
+      <c r="B23">
+        <v>0.1066441350302705</v>
+      </c>
+      <c r="C23">
+        <v>3.057376932854194</v>
+      </c>
+      <c r="D23">
+        <v>4.565176932854194</v>
+      </c>
+      <c r="E23">
+        <v>1.5078</v>
+      </c>
+      <c r="F23">
+        <v>1.5078</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>7.18</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0.494</v>
+      </c>
+      <c r="K23">
+        <v>0.452</v>
+      </c>
+      <c r="L23">
+        <v>0.04199999999999998</v>
+      </c>
+      <c r="M23">
+        <v>0.2769828599999999</v>
+      </c>
+      <c r="N23">
+        <v>-0.23498286</v>
+      </c>
+      <c r="O23">
+        <v>-0.03524742899999999</v>
+      </c>
+      <c r="P23">
+        <v>-0.199735431</v>
+      </c>
+      <c r="Q23">
+        <v>0.252264569</v>
+      </c>
+      <c r="R23">
+        <v>0.2658227848101266</v>
+      </c>
+      <c r="S23">
+        <v>0.08727161057743772</v>
+      </c>
+      <c r="T23">
+        <v>1.244261278770953</v>
+      </c>
+      <c r="U23">
+        <v>0.1837</v>
+      </c>
+      <c r="V23">
+        <v>0.02274508971421552</v>
+      </c>
+      <c r="W23">
+        <v>0.1795217270194986</v>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y23">
+        <v>0.1516339314281034</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>0.22</v>
+      </c>
+      <c r="B24">
+        <v>0.1083881350302705</v>
+      </c>
+      <c r="C24">
+        <v>2.905227569446906</v>
+      </c>
+      <c r="D24">
+        <v>4.484827569446906</v>
+      </c>
+      <c r="E24">
+        <v>1.5796</v>
+      </c>
+      <c r="F24">
+        <v>1.5796</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>7.18</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0.494</v>
+      </c>
+      <c r="K24">
+        <v>0.452</v>
+      </c>
+      <c r="L24">
+        <v>0.04199999999999998</v>
+      </c>
+      <c r="M24">
+        <v>0.29017252</v>
+      </c>
+      <c r="N24">
+        <v>-0.24817252</v>
+      </c>
+      <c r="O24">
+        <v>-0.037225878</v>
+      </c>
+      <c r="P24">
+        <v>-0.210946642</v>
+      </c>
+      <c r="Q24">
+        <v>0.241053358</v>
+      </c>
+      <c r="R24">
+        <v>0.282051282051282</v>
+      </c>
+      <c r="S24">
+        <v>0.0882712466104818</v>
+      </c>
+      <c r="T24">
+        <v>1.260213346447504</v>
+      </c>
+      <c r="U24">
+        <v>0.1837</v>
+      </c>
+      <c r="V24">
+        <v>0.021711221999933</v>
+      </c>
+      <c r="W24">
+        <v>0.1797116485186123</v>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y24">
+        <v>0.1447414799995533</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>0.23</v>
+      </c>
+      <c r="B25">
+        <v>0.1101321350302705</v>
+      </c>
+      <c r="C25">
+        <v>2.755857663000242</v>
+      </c>
+      <c r="D25">
+        <v>4.407257663000242</v>
+      </c>
+      <c r="E25">
+        <v>1.6514</v>
+      </c>
+      <c r="F25">
+        <v>1.6514</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>7.18</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0.494</v>
+      </c>
+      <c r="K25">
+        <v>0.452</v>
+      </c>
+      <c r="L25">
+        <v>0.04199999999999998</v>
+      </c>
+      <c r="M25">
+        <v>0.30336218</v>
+      </c>
+      <c r="N25">
+        <v>-0.26136218</v>
+      </c>
+      <c r="O25">
+        <v>-0.039204327</v>
+      </c>
+      <c r="P25">
+        <v>-0.222157853</v>
+      </c>
+      <c r="Q25">
+        <v>0.229842147</v>
+      </c>
+      <c r="R25">
+        <v>0.2987012987012987</v>
+      </c>
+      <c r="S25">
+        <v>0.08929684721581273</v>
+      </c>
+      <c r="T25">
+        <v>1.276579753544225</v>
+      </c>
+      <c r="U25">
+        <v>0.1837</v>
+      </c>
+      <c r="V25">
+        <v>0.02076725582602286</v>
+      </c>
+      <c r="W25">
+        <v>0.1798850551047596</v>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y25">
+        <v>0.1384483721734858</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>0.24</v>
+      </c>
+      <c r="B26">
+        <v>0.1118761350302705</v>
+      </c>
+      <c r="C26">
+        <v>2.609125444487582</v>
+      </c>
+      <c r="D26">
+        <v>4.332325444487582</v>
+      </c>
+      <c r="E26">
+        <v>1.7232</v>
+      </c>
+      <c r="F26">
+        <v>1.7232</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>7.18</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0.494</v>
+      </c>
+      <c r="K26">
+        <v>0.452</v>
+      </c>
+      <c r="L26">
+        <v>0.04199999999999998</v>
+      </c>
+      <c r="M26">
+        <v>0.31655184</v>
+      </c>
+      <c r="N26">
+        <v>-0.27455184</v>
+      </c>
+      <c r="O26">
+        <v>-0.041182776</v>
+      </c>
+      <c r="P26">
+        <v>-0.233369064</v>
+      </c>
+      <c r="Q26">
+        <v>0.218630936</v>
+      </c>
+      <c r="R26">
+        <v>0.3157894736842105</v>
+      </c>
+      <c r="S26">
+        <v>0.09034943731075762</v>
+      </c>
+      <c r="T26">
+        <v>1.293376855564544</v>
+      </c>
+      <c r="U26">
+        <v>0.1837</v>
+      </c>
+      <c r="V26">
+        <v>0.01990195349993858</v>
+      </c>
+      <c r="W26">
+        <v>0.1800440111420613</v>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y26">
+        <v>0.1326796899995906</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>0.25</v>
+      </c>
+      <c r="B27">
+        <v>0.1136201350302705</v>
+      </c>
+      <c r="C27">
+        <v>2.464898625130092</v>
+      </c>
+      <c r="D27">
+        <v>4.259898625130091</v>
+      </c>
+      <c r="E27">
+        <v>1.795</v>
+      </c>
+      <c r="F27">
+        <v>1.795</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>7.18</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0.494</v>
+      </c>
+      <c r="K27">
+        <v>0.452</v>
+      </c>
+      <c r="L27">
+        <v>0.04199999999999998</v>
+      </c>
+      <c r="M27">
+        <v>0.3297415</v>
+      </c>
+      <c r="N27">
+        <v>-0.2877415</v>
+      </c>
+      <c r="O27">
+        <v>-0.043161225</v>
+      </c>
+      <c r="P27">
+        <v>-0.244580275</v>
+      </c>
+      <c r="Q27">
+        <v>0.207419725</v>
+      </c>
+      <c r="R27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="S27">
+        <v>0.09143009647490108</v>
+      </c>
+      <c r="T27">
+        <v>1.310621880305404</v>
+      </c>
+      <c r="U27">
+        <v>0.1837</v>
+      </c>
+      <c r="V27">
+        <v>0.01910587535994104</v>
+      </c>
+      <c r="W27">
+        <v>0.1801902506963788</v>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y27">
+        <v>0.127372502399607</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>0.26</v>
+      </c>
+      <c r="B28">
+        <v>0.1153641350302705</v>
+      </c>
+      <c r="C28">
+        <v>2.32305361698378</v>
+      </c>
+      <c r="D28">
+        <v>4.18985361698378</v>
+      </c>
+      <c r="E28">
+        <v>1.8668</v>
+      </c>
+      <c r="F28">
+        <v>1.8668</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>7.18</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0.494</v>
+      </c>
+      <c r="K28">
+        <v>0.452</v>
+      </c>
+      <c r="L28">
+        <v>0.04199999999999998</v>
+      </c>
+      <c r="M28">
+        <v>0.34293116</v>
+      </c>
+      <c r="N28">
+        <v>-0.30093116</v>
+      </c>
+      <c r="O28">
+        <v>-0.045139674</v>
+      </c>
+      <c r="P28">
+        <v>-0.255791486</v>
+      </c>
+      <c r="Q28">
+        <v>0.196208514</v>
+      </c>
+      <c r="R28">
+        <v>0.3513513513513514</v>
+      </c>
+      <c r="S28">
+        <v>0.09253996264348081</v>
+      </c>
+      <c r="T28">
+        <v>1.328332986796018</v>
+      </c>
+      <c r="U28">
+        <v>0.1837</v>
+      </c>
+      <c r="V28">
+        <v>0.0183710339999433</v>
+      </c>
+      <c r="W28">
+        <v>0.1803252410542104</v>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y28">
+        <v>0.1224735599996221</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>0.27</v>
+      </c>
+      <c r="B29">
+        <v>0.1171081350302705</v>
+      </c>
+      <c r="C29">
+        <v>2.183474829177386</v>
+      </c>
+      <c r="D29">
+        <v>4.122074829177386</v>
+      </c>
+      <c r="E29">
+        <v>1.9386</v>
+      </c>
+      <c r="F29">
+        <v>1.9386</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>7.18</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0.494</v>
+      </c>
+      <c r="K29">
+        <v>0.452</v>
+      </c>
+      <c r="L29">
+        <v>0.04199999999999998</v>
+      </c>
+      <c r="M29">
+        <v>0.35612082</v>
+      </c>
+      <c r="N29">
+        <v>-0.31412082</v>
+      </c>
+      <c r="O29">
+        <v>-0.047118123</v>
+      </c>
+      <c r="P29">
+        <v>-0.267002697</v>
+      </c>
+      <c r="Q29">
+        <v>0.184997303</v>
+      </c>
+      <c r="R29">
+        <v>0.3698630136986302</v>
+      </c>
+      <c r="S29">
+        <v>0.09368023610435042</v>
+      </c>
+      <c r="T29">
+        <v>1.346529329080895</v>
+      </c>
+      <c r="U29">
+        <v>0.1837</v>
+      </c>
+      <c r="V29">
+        <v>0.01769062533327874</v>
+      </c>
+      <c r="W29">
+        <v>0.1804502321262767</v>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y29">
+        <v>0.1179375022218583</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>0.28</v>
+      </c>
+      <c r="B30">
+        <v>0.1188521350302705</v>
+      </c>
+      <c r="C30">
+        <v>2.046054031370944</v>
+      </c>
+      <c r="D30">
+        <v>4.056454031370945</v>
+      </c>
+      <c r="E30">
+        <v>2.0104</v>
+      </c>
+      <c r="F30">
+        <v>2.0104</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>7.18</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0.494</v>
+      </c>
+      <c r="K30">
+        <v>0.452</v>
+      </c>
+      <c r="L30">
+        <v>0.04199999999999998</v>
+      </c>
+      <c r="M30">
+        <v>0.3693104800000001</v>
+      </c>
+      <c r="N30">
+        <v>-0.3273104800000001</v>
+      </c>
+      <c r="O30">
+        <v>-0.04909657200000001</v>
+      </c>
+      <c r="P30">
+        <v>-0.2782139080000001</v>
+      </c>
+      <c r="Q30">
+        <v>0.1737860919999999</v>
+      </c>
+      <c r="R30">
+        <v>0.388888888888889</v>
+      </c>
+      <c r="S30">
+        <v>0.09485218382802194</v>
+      </c>
+      <c r="T30">
+        <v>1.365231125318129</v>
+      </c>
+      <c r="U30">
+        <v>0.1837</v>
+      </c>
+      <c r="V30">
+        <v>0.01705881728566164</v>
+      </c>
+      <c r="W30">
+        <v>0.180566295264624</v>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y30">
+        <v>0.1137254485710776</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>0.29</v>
+      </c>
+      <c r="B31">
+        <v>0.1205961350302705</v>
+      </c>
+      <c r="C31">
+        <v>1.910689777061604</v>
+      </c>
+      <c r="D31">
+        <v>3.992889777061603</v>
+      </c>
+      <c r="E31">
+        <v>2.0822</v>
+      </c>
+      <c r="F31">
+        <v>2.0822</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>7.18</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0.494</v>
+      </c>
+      <c r="K31">
+        <v>0.452</v>
+      </c>
+      <c r="L31">
+        <v>0.04199999999999998</v>
+      </c>
+      <c r="M31">
+        <v>0.38250014</v>
+      </c>
+      <c r="N31">
+        <v>-0.34050014</v>
+      </c>
+      <c r="O31">
+        <v>-0.051075021</v>
+      </c>
+      <c r="P31">
+        <v>-0.289425119</v>
+      </c>
+      <c r="Q31">
+        <v>0.162574881</v>
+      </c>
+      <c r="R31">
+        <v>0.4084507042253521</v>
+      </c>
+      <c r="S31">
+        <v>0.09605714416362787</v>
+      </c>
+      <c r="T31">
+        <v>1.384459732716976</v>
+      </c>
+      <c r="U31">
+        <v>0.1837</v>
+      </c>
+      <c r="V31">
+        <v>0.01647058220684572</v>
+      </c>
+      <c r="W31">
+        <v>0.1806743540486024</v>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y31">
+        <v>0.1098038813789715</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>0.3</v>
+      </c>
+      <c r="B32">
+        <v>0.1223401350302705</v>
+      </c>
+      <c r="C32">
+        <v>1.777286880273389</v>
+      </c>
+      <c r="D32">
+        <v>3.931286880273389</v>
+      </c>
+      <c r="E32">
+        <v>2.154</v>
+      </c>
+      <c r="F32">
+        <v>2.154</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>7.18</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0.494</v>
+      </c>
+      <c r="K32">
+        <v>0.452</v>
+      </c>
+      <c r="L32">
+        <v>0.04199999999999998</v>
+      </c>
+      <c r="M32">
+        <v>0.3956898</v>
+      </c>
+      <c r="N32">
+        <v>-0.3536898</v>
+      </c>
+      <c r="O32">
+        <v>-0.05305347</v>
+      </c>
+      <c r="P32">
+        <v>-0.30063633</v>
+      </c>
+      <c r="Q32">
+        <v>0.15136367</v>
+      </c>
+      <c r="R32">
+        <v>0.4285714285714286</v>
+      </c>
+      <c r="S32">
+        <v>0.097296531937394</v>
+      </c>
+      <c r="T32">
+        <v>1.404237728898647</v>
+      </c>
+      <c r="U32">
+        <v>0.1837</v>
+      </c>
+      <c r="V32">
+        <v>0.01592156279995087</v>
+      </c>
+      <c r="W32">
+        <v>0.180775208913649</v>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y32">
+        <v>0.1061437519996724</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>0.31</v>
+      </c>
+      <c r="B33">
+        <v>0.1240841350302705</v>
+      </c>
+      <c r="C33">
+        <v>1.645755939953208</v>
+      </c>
+      <c r="D33">
+        <v>3.871555939953208</v>
+      </c>
+      <c r="E33">
+        <v>2.2258</v>
+      </c>
+      <c r="F33">
+        <v>2.2258</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>7.18</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0.494</v>
+      </c>
+      <c r="K33">
+        <v>0.452</v>
+      </c>
+      <c r="L33">
+        <v>0.04199999999999998</v>
+      </c>
+      <c r="M33">
+        <v>0.40887946</v>
+      </c>
+      <c r="N33">
+        <v>-0.36687946</v>
+      </c>
+      <c r="O33">
+        <v>-0.05503191900000001</v>
+      </c>
+      <c r="P33">
+        <v>-0.3118475410000001</v>
+      </c>
+      <c r="Q33">
+        <v>0.140152459</v>
+      </c>
+      <c r="R33">
+        <v>0.4492753623188406</v>
+      </c>
+      <c r="S33">
+        <v>0.09857184399445768</v>
+      </c>
+      <c r="T33">
+        <v>1.424589000331961</v>
+      </c>
+      <c r="U33">
+        <v>0.1837</v>
+      </c>
+      <c r="V33">
+        <v>0.01540796399995245</v>
+      </c>
+      <c r="W33">
+        <v>0.1808695570132087</v>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y33">
+        <v>0.102719759999683</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>0.32</v>
+      </c>
+      <c r="B34">
+        <v>0.1258281350302705</v>
+      </c>
+      <c r="C34">
+        <v>1.516012907075145</v>
+      </c>
+      <c r="D34">
+        <v>3.813612907075145</v>
+      </c>
+      <c r="E34">
+        <v>2.2976</v>
+      </c>
+      <c r="F34">
+        <v>2.2976</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>7.18</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0.494</v>
+      </c>
+      <c r="K34">
+        <v>0.452</v>
+      </c>
+      <c r="L34">
+        <v>0.04199999999999998</v>
+      </c>
+      <c r="M34">
+        <v>0.42206912</v>
+      </c>
+      <c r="N34">
+        <v>-0.38006912</v>
+      </c>
+      <c r="O34">
+        <v>-0.05701036800000001</v>
+      </c>
+      <c r="P34">
+        <v>-0.323058752</v>
+      </c>
+      <c r="Q34">
+        <v>0.128941248</v>
+      </c>
+      <c r="R34">
+        <v>0.4705882352941177</v>
+      </c>
+      <c r="S34">
+        <v>0.09988466522967029</v>
+      </c>
+      <c r="T34">
+        <v>1.445538838572137</v>
+      </c>
+      <c r="U34">
+        <v>0.1837</v>
+      </c>
+      <c r="V34">
+        <v>0.01492646512495393</v>
+      </c>
+      <c r="W34">
+        <v>0.180958008356546</v>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y34">
+        <v>0.09950976749969287</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>0.33</v>
+      </c>
+      <c r="B35">
+        <v>0.1275721350302705</v>
+      </c>
+      <c r="C35">
+        <v>1.387978690044761</v>
+      </c>
+      <c r="D35">
+        <v>3.757378690044761</v>
+      </c>
+      <c r="E35">
+        <v>2.3694</v>
+      </c>
+      <c r="F35">
+        <v>2.3694</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>7.18</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0.494</v>
+      </c>
+      <c r="K35">
+        <v>0.452</v>
+      </c>
+      <c r="L35">
+        <v>0.04199999999999998</v>
+      </c>
+      <c r="M35">
+        <v>0.43525878</v>
+      </c>
+      <c r="N35">
+        <v>-0.39325878</v>
+      </c>
+      <c r="O35">
+        <v>-0.058988817</v>
+      </c>
+      <c r="P35">
+        <v>-0.334269963</v>
+      </c>
+      <c r="Q35">
+        <v>0.117730037</v>
+      </c>
+      <c r="R35">
+        <v>0.4925373134328359</v>
+      </c>
+      <c r="S35">
+        <v>0.1012366751584713</v>
+      </c>
+      <c r="T35">
+        <v>1.46711404511799</v>
+      </c>
+      <c r="U35">
+        <v>0.1837</v>
+      </c>
+      <c r="V35">
+        <v>0.01447414799995533</v>
+      </c>
+      <c r="W35">
+        <v>0.1810410990124082</v>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y35">
+        <v>0.09649431999970215</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>0.34</v>
+      </c>
+      <c r="B36">
+        <v>0.1293161350302705</v>
+      </c>
+      <c r="C36">
+        <v>1.261578794507503</v>
+      </c>
+      <c r="D36">
+        <v>3.702778794507504</v>
+      </c>
+      <c r="E36">
+        <v>2.4412</v>
+      </c>
+      <c r="F36">
+        <v>2.4412</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>7.18</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0.494</v>
+      </c>
+      <c r="K36">
+        <v>0.452</v>
+      </c>
+      <c r="L36">
+        <v>0.04199999999999998</v>
+      </c>
+      <c r="M36">
+        <v>0.4484484400000001</v>
+      </c>
+      <c r="N36">
+        <v>-0.4064484400000001</v>
+      </c>
+      <c r="O36">
+        <v>-0.06096726600000001</v>
+      </c>
+      <c r="P36">
+        <v>-0.3454811740000001</v>
+      </c>
+      <c r="Q36">
+        <v>0.106518826</v>
+      </c>
+      <c r="R36">
+        <v>0.5151515151515152</v>
+      </c>
+      <c r="S36">
+        <v>0.1026296550851148</v>
+      </c>
+      <c r="T36">
+        <v>1.489343045801596</v>
+      </c>
+      <c r="U36">
+        <v>0.1837</v>
+      </c>
+      <c r="V36">
+        <v>0.01404843776466252</v>
+      </c>
+      <c r="W36">
+        <v>0.1811193019826315</v>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y36">
+        <v>0.09365625176441683</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>0.35</v>
+      </c>
+      <c r="B37">
+        <v>0.1310601350302705</v>
+      </c>
+      <c r="C37">
+        <v>1.136742994111786</v>
+      </c>
+      <c r="D37">
+        <v>3.649742994111786</v>
+      </c>
+      <c r="E37">
+        <v>2.513</v>
+      </c>
+      <c r="F37">
+        <v>2.513</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>7.18</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0.494</v>
+      </c>
+      <c r="K37">
+        <v>0.452</v>
+      </c>
+      <c r="L37">
+        <v>0.04199999999999998</v>
+      </c>
+      <c r="M37">
+        <v>0.4616381000000001</v>
+      </c>
+      <c r="N37">
+        <v>-0.4196381000000001</v>
+      </c>
+      <c r="O37">
+        <v>-0.06294571500000001</v>
+      </c>
+      <c r="P37">
+        <v>-0.3566923850000001</v>
+      </c>
+      <c r="Q37">
+        <v>0.09530761499999996</v>
+      </c>
+      <c r="R37">
+        <v>0.5384615384615385</v>
+      </c>
+      <c r="S37">
+        <v>0.1040654959325781</v>
+      </c>
+      <c r="T37">
+        <v>1.512256015737005</v>
+      </c>
+      <c r="U37">
+        <v>0.1837</v>
+      </c>
+      <c r="V37">
+        <v>0.01364705382852931</v>
+      </c>
+      <c r="W37">
+        <v>0.1811930362116992</v>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y37">
+        <v>0.09098035885686206</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>0.36</v>
+      </c>
+      <c r="B38">
+        <v>0.1328041350302705</v>
+      </c>
+      <c r="C38">
+        <v>1.013405029166961</v>
+      </c>
+      <c r="D38">
+        <v>3.598205029166961</v>
+      </c>
+      <c r="E38">
+        <v>2.5848</v>
+      </c>
+      <c r="F38">
+        <v>2.5848</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>7.18</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0.494</v>
+      </c>
+      <c r="K38">
+        <v>0.452</v>
+      </c>
+      <c r="L38">
+        <v>0.04199999999999998</v>
+      </c>
+      <c r="M38">
+        <v>0.47482776</v>
+      </c>
+      <c r="N38">
+        <v>-0.43282776</v>
+      </c>
+      <c r="O38">
+        <v>-0.06492416399999999</v>
+      </c>
+      <c r="P38">
+        <v>-0.367903596</v>
+      </c>
+      <c r="Q38">
+        <v>0.08409640400000001</v>
+      </c>
+      <c r="R38">
+        <v>0.5625</v>
+      </c>
+      <c r="S38">
+        <v>0.1055462068065247</v>
+      </c>
+      <c r="T38">
+        <v>1.535885015982896</v>
+      </c>
+      <c r="U38">
+        <v>0.1837</v>
+      </c>
+      <c r="V38">
+        <v>0.01326796899995905</v>
+      </c>
+      <c r="W38">
+        <v>0.1812626740947075</v>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y38">
+        <v>0.08845312666639371</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>0.37</v>
+      </c>
+      <c r="B39">
+        <v>0.1345481350302705</v>
+      </c>
+      <c r="C39">
+        <v>0.8915023304772718</v>
+      </c>
+      <c r="D39">
+        <v>3.548102330477272</v>
+      </c>
+      <c r="E39">
+        <v>2.6566</v>
+      </c>
+      <c r="F39">
+        <v>2.6566</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>7.18</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0.494</v>
+      </c>
+      <c r="K39">
+        <v>0.452</v>
+      </c>
+      <c r="L39">
+        <v>0.04199999999999998</v>
+      </c>
+      <c r="M39">
+        <v>0.48801742</v>
+      </c>
+      <c r="N39">
+        <v>-0.4460174200000001</v>
+      </c>
+      <c r="O39">
+        <v>-0.066902613</v>
+      </c>
+      <c r="P39">
+        <v>-0.3791148070000001</v>
+      </c>
+      <c r="Q39">
+        <v>0.07288519299999996</v>
+      </c>
+      <c r="R39">
+        <v>0.5873015873015873</v>
+      </c>
+      <c r="S39">
+        <v>0.1070739243748822</v>
+      </c>
+      <c r="T39">
+        <v>1.560264143220719</v>
+      </c>
+      <c r="U39">
+        <v>0.1837</v>
+      </c>
+      <c r="V39">
+        <v>0.0129093752432034</v>
+      </c>
+      <c r="W39">
+        <v>0.1813285477678235</v>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y39">
+        <v>0.08606250162135598</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>0.38</v>
+      </c>
+      <c r="B40">
+        <v>0.1362921350302705</v>
+      </c>
+      <c r="C40">
+        <v>0.7709757659315448</v>
+      </c>
+      <c r="D40">
+        <v>3.499375765931545</v>
+      </c>
+      <c r="E40">
+        <v>2.7284</v>
+      </c>
+      <c r="F40">
+        <v>2.7284</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>7.18</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0.494</v>
+      </c>
+      <c r="K40">
+        <v>0.452</v>
+      </c>
+      <c r="L40">
+        <v>0.04199999999999998</v>
+      </c>
+      <c r="M40">
+        <v>0.5012070799999999</v>
+      </c>
+      <c r="N40">
+        <v>-0.4592070799999999</v>
+      </c>
+      <c r="O40">
+        <v>-0.06888106199999999</v>
+      </c>
+      <c r="P40">
+        <v>-0.3903260179999999</v>
+      </c>
+      <c r="Q40">
+        <v>0.06167398200000007</v>
+      </c>
+      <c r="R40">
+        <v>0.6129032258064516</v>
+      </c>
+      <c r="S40">
+        <v>0.1086509231551223</v>
+      </c>
+      <c r="T40">
+        <v>1.585429693917828</v>
+      </c>
+      <c r="U40">
+        <v>0.1837</v>
+      </c>
+      <c r="V40">
+        <v>0.01256965484206647</v>
+      </c>
+      <c r="W40">
+        <v>0.1813909544055124</v>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y40">
+        <v>0.08379769894710987</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>0.39</v>
+      </c>
+      <c r="B41">
+        <v>0.1380361350302705</v>
+      </c>
+      <c r="C41">
+        <v>0.6517694076907161</v>
+      </c>
+      <c r="D41">
+        <v>3.451969407690716</v>
+      </c>
+      <c r="E41">
+        <v>2.8002</v>
+      </c>
+      <c r="F41">
+        <v>2.8002</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>7.18</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0.494</v>
+      </c>
+      <c r="K41">
+        <v>0.452</v>
+      </c>
+      <c r="L41">
+        <v>0.04199999999999998</v>
+      </c>
+      <c r="M41">
+        <v>0.51439674</v>
+      </c>
+      <c r="N41">
+        <v>-0.47239674</v>
+      </c>
+      <c r="O41">
+        <v>-0.070859511</v>
+      </c>
+      <c r="P41">
+        <v>-0.4015372290000001</v>
+      </c>
+      <c r="Q41">
+        <v>0.05046277099999996</v>
+      </c>
+      <c r="R41">
+        <v>0.639344262295082</v>
+      </c>
+      <c r="S41">
+        <v>0.1102796268134029</v>
+      </c>
+      <c r="T41">
+        <v>1.611420344637792</v>
+      </c>
+      <c r="U41">
+        <v>0.1837</v>
+      </c>
+      <c r="V41">
+        <v>0.0122473559999622</v>
+      </c>
+      <c r="W41">
+        <v>0.181450160702807</v>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y41">
+        <v>0.08164903999974804</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>0.4</v>
+      </c>
+      <c r="B42">
+        <v>0.1397801350302705</v>
+      </c>
+      <c r="C42">
+        <v>0.5338303180460282</v>
+      </c>
+      <c r="D42">
+        <v>3.405830318046028</v>
+      </c>
+      <c r="E42">
+        <v>2.872</v>
+      </c>
+      <c r="F42">
+        <v>2.872</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>7.18</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0.494</v>
+      </c>
+      <c r="K42">
+        <v>0.452</v>
+      </c>
+      <c r="L42">
+        <v>0.04199999999999998</v>
+      </c>
+      <c r="M42">
+        <v>0.5275864</v>
+      </c>
+      <c r="N42">
+        <v>-0.4855864</v>
+      </c>
+      <c r="O42">
+        <v>-0.07283796000000001</v>
+      </c>
+      <c r="P42">
+        <v>-0.41274844</v>
+      </c>
+      <c r="Q42">
+        <v>0.03925156000000002</v>
+      </c>
+      <c r="R42">
+        <v>0.6666666666666667</v>
+      </c>
+      <c r="S42">
+        <v>0.1119626205936263</v>
+      </c>
+      <c r="T42">
+        <v>1.638277350381755</v>
+      </c>
+      <c r="U42">
+        <v>0.1837</v>
+      </c>
+      <c r="V42">
+        <v>0.01194117209996315</v>
+      </c>
+      <c r="W42">
+        <v>0.1815064066852368</v>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y42">
+        <v>0.07960781399975436</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>0.41</v>
+      </c>
+      <c r="B43">
+        <v>0.1415241350302705</v>
+      </c>
+      <c r="C43">
+        <v>0.4171083522240364</v>
+      </c>
+      <c r="D43">
+        <v>3.360908352224036</v>
+      </c>
+      <c r="E43">
+        <v>2.9438</v>
+      </c>
+      <c r="F43">
+        <v>2.9438</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>7.18</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0.494</v>
+      </c>
+      <c r="K43">
+        <v>0.452</v>
+      </c>
+      <c r="L43">
+        <v>0.04199999999999998</v>
+      </c>
+      <c r="M43">
+        <v>0.54077606</v>
+      </c>
+      <c r="N43">
+        <v>-0.49877606</v>
+      </c>
+      <c r="O43">
+        <v>-0.074816409</v>
+      </c>
+      <c r="P43">
+        <v>-0.423959651</v>
+      </c>
+      <c r="Q43">
+        <v>0.02804034900000002</v>
+      </c>
+      <c r="R43">
+        <v>0.6949152542372882</v>
+      </c>
+      <c r="S43">
+        <v>0.1137026650104674</v>
+      </c>
+      <c r="T43">
+        <v>1.66604476310009</v>
+      </c>
+      <c r="U43">
+        <v>0.1837</v>
+      </c>
+      <c r="V43">
+        <v>0.01164992399996405</v>
+      </c>
+      <c r="W43">
+        <v>0.1815599089612066</v>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y43">
+        <v>0.07766615999976034</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>0.42</v>
+      </c>
+      <c r="B44">
+        <v>0.1432681350302705</v>
+      </c>
+      <c r="C44">
+        <v>0.301555976594158</v>
+      </c>
+      <c r="D44">
+        <v>3.317155976594158</v>
+      </c>
+      <c r="E44">
+        <v>3.0156</v>
+      </c>
+      <c r="F44">
+        <v>3.0156</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>7.18</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0.494</v>
+      </c>
+      <c r="K44">
+        <v>0.452</v>
+      </c>
+      <c r="L44">
+        <v>0.04199999999999998</v>
+      </c>
+      <c r="M44">
+        <v>0.5539657199999999</v>
+      </c>
+      <c r="N44">
+        <v>-0.5119657199999998</v>
+      </c>
+      <c r="O44">
+        <v>-0.07679485799999998</v>
+      </c>
+      <c r="P44">
+        <v>-0.4351708619999999</v>
+      </c>
+      <c r="Q44">
+        <v>0.01682913800000013</v>
+      </c>
+      <c r="R44">
+        <v>0.7241379310344827</v>
+      </c>
+      <c r="S44">
+        <v>0.1155027109589238</v>
+      </c>
+      <c r="T44">
+        <v>1.694769672808712</v>
+      </c>
+      <c r="U44">
+        <v>0.1837</v>
+      </c>
+      <c r="V44">
+        <v>0.01137254485710776</v>
+      </c>
+      <c r="W44">
+        <v>0.1816108635097493</v>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y44">
+        <v>0.07581696571405183</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>0.43</v>
+      </c>
+      <c r="B45">
+        <v>0.1450121350302705</v>
+      </c>
+      <c r="C45">
+        <v>0.1871281008932129</v>
+      </c>
+      <c r="D45">
+        <v>3.274528100893213</v>
+      </c>
+      <c r="E45">
+        <v>3.0874</v>
+      </c>
+      <c r="F45">
+        <v>3.0874</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>7.18</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0.494</v>
+      </c>
+      <c r="K45">
+        <v>0.452</v>
+      </c>
+      <c r="L45">
+        <v>0.04199999999999998</v>
+      </c>
+      <c r="M45">
+        <v>0.56715538</v>
+      </c>
+      <c r="N45">
+        <v>-0.5251553799999999</v>
+      </c>
+      <c r="O45">
+        <v>-0.07877330699999999</v>
+      </c>
+      <c r="P45">
+        <v>-0.446382073</v>
+      </c>
+      <c r="Q45">
+        <v>0.005617927000000023</v>
+      </c>
+      <c r="R45">
+        <v>0.7543859649122806</v>
+      </c>
+      <c r="S45">
+        <v>0.1173659164143435</v>
+      </c>
+      <c r="T45">
+        <v>1.724502474086058</v>
+      </c>
+      <c r="U45">
+        <v>0.1837</v>
+      </c>
+      <c r="V45">
+        <v>0.01110806706973316</v>
+      </c>
+      <c r="W45">
+        <v>0.18165944807929</v>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y45">
+        <v>0.07405378046488786</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>0.44</v>
+      </c>
+      <c r="B46">
+        <v>0.1467561350302705</v>
+      </c>
+      <c r="C46">
+        <v>0.07378192322205779</v>
+      </c>
+      <c r="D46">
+        <v>3.232981923222058</v>
+      </c>
+      <c r="E46">
+        <v>3.1592</v>
+      </c>
+      <c r="F46">
+        <v>3.1592</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>7.18</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0.494</v>
+      </c>
+      <c r="K46">
+        <v>0.452</v>
+      </c>
+      <c r="L46">
+        <v>0.04199999999999998</v>
+      </c>
+      <c r="M46">
+        <v>0.58034504</v>
+      </c>
+      <c r="N46">
+        <v>-0.5383450400000001</v>
+      </c>
+      <c r="O46">
+        <v>-0.08075175600000001</v>
+      </c>
+      <c r="P46">
+        <v>-0.457593284</v>
+      </c>
+      <c r="Q46">
+        <v>-0.005593284000000032</v>
+      </c>
+      <c r="R46">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="S46">
+        <v>0.1192956649217425</v>
+      </c>
+      <c r="T46">
+        <v>1.755297161123309</v>
+      </c>
+      <c r="U46">
+        <v>0.1837</v>
+      </c>
+      <c r="V46">
+        <v>0.0108556109999665</v>
+      </c>
+      <c r="W46">
+        <v>0.1817058242593062</v>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y46">
+        <v>0.07237073999977661</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>0.45</v>
+      </c>
+      <c r="B47">
+        <v>0.1485001350302705</v>
+      </c>
+      <c r="C47">
+        <v>-0.0385232133058131</v>
+      </c>
+      <c r="D47">
+        <v>3.192476786694187</v>
+      </c>
+      <c r="E47">
+        <v>3.231</v>
+      </c>
+      <c r="F47">
+        <v>3.231</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>7.18</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0.494</v>
+      </c>
+      <c r="K47">
+        <v>0.452</v>
+      </c>
+      <c r="L47">
+        <v>0.04199999999999998</v>
+      </c>
+      <c r="M47">
+        <v>0.5935347</v>
+      </c>
+      <c r="N47">
+        <v>-0.5515346999999999</v>
+      </c>
+      <c r="O47">
+        <v>-0.08273020499999999</v>
+      </c>
+      <c r="P47">
+        <v>-0.4688044949999999</v>
+      </c>
+      <c r="Q47">
+        <v>-0.01680449499999992</v>
+      </c>
+      <c r="R47">
+        <v>0.8181818181818181</v>
+      </c>
+      <c r="S47">
+        <v>0.1212955861021378</v>
+      </c>
+      <c r="T47">
+        <v>1.787211654961915</v>
+      </c>
+      <c r="U47">
+        <v>0.1837</v>
+      </c>
+      <c r="V47">
+        <v>0.01061437519996724</v>
+      </c>
+      <c r="W47">
+        <v>0.181750139275766</v>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y47">
+        <v>0.07076250133311501</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>0.46</v>
+      </c>
+      <c r="B48">
+        <v>0.1502441350302705</v>
+      </c>
+      <c r="C48">
+        <v>-0.149825953272956</v>
+      </c>
+      <c r="D48">
+        <v>3.152974046727044</v>
+      </c>
+      <c r="E48">
+        <v>3.3028</v>
+      </c>
+      <c r="F48">
+        <v>3.3028</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>7.18</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0.494</v>
+      </c>
+      <c r="K48">
+        <v>0.452</v>
+      </c>
+      <c r="L48">
+        <v>0.04199999999999998</v>
+      </c>
+      <c r="M48">
+        <v>0.60672436</v>
+      </c>
+      <c r="N48">
+        <v>-0.56472436</v>
+      </c>
+      <c r="O48">
+        <v>-0.08470865400000001</v>
+      </c>
+      <c r="P48">
+        <v>-0.480015706</v>
+      </c>
+      <c r="Q48">
+        <v>-0.02801570600000003</v>
+      </c>
+      <c r="R48">
+        <v>0.8518518518518519</v>
+      </c>
+      <c r="S48">
+        <v>0.1233695784373626</v>
+      </c>
+      <c r="T48">
+        <v>1.820308167090839</v>
+      </c>
+      <c r="U48">
+        <v>0.1837</v>
+      </c>
+      <c r="V48">
+        <v>0.01038362791301143</v>
+      </c>
+      <c r="W48">
+        <v>0.1817925275523798</v>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y48">
+        <v>0.06922418608674274</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>0.47</v>
+      </c>
+      <c r="B49">
+        <v>0.1519881350302705</v>
+      </c>
+      <c r="C49">
+        <v>-0.2601630519344917</v>
+      </c>
+      <c r="D49">
+        <v>3.114436948065508</v>
+      </c>
+      <c r="E49">
+        <v>3.3746</v>
+      </c>
+      <c r="F49">
+        <v>3.3746</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>7.18</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0.494</v>
+      </c>
+      <c r="K49">
+        <v>0.452</v>
+      </c>
+      <c r="L49">
+        <v>0.04199999999999998</v>
+      </c>
+      <c r="M49">
+        <v>0.6199140200000001</v>
+      </c>
+      <c r="N49">
+        <v>-0.5779140200000001</v>
+      </c>
+      <c r="O49">
+        <v>-0.08668710300000002</v>
+      </c>
+      <c r="P49">
+        <v>-0.4912269170000001</v>
+      </c>
+      <c r="Q49">
+        <v>-0.03922691700000008</v>
+      </c>
+      <c r="R49">
+        <v>0.8867924528301887</v>
+      </c>
+      <c r="S49">
+        <v>0.1255218346342939</v>
+      </c>
+      <c r="T49">
+        <v>1.854653604205761</v>
+      </c>
+      <c r="U49">
+        <v>0.1837</v>
+      </c>
+      <c r="V49">
+        <v>0.0101626996595431</v>
+      </c>
+      <c r="W49">
+        <v>0.1818331120725419</v>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y49">
+        <v>0.06775133106362063</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>0.48</v>
+      </c>
+      <c r="B50">
+        <v>0.1537321350302705</v>
+      </c>
+      <c r="C50">
+        <v>-0.3695694892850701</v>
+      </c>
+      <c r="D50">
+        <v>3.07683051071493</v>
+      </c>
+      <c r="E50">
+        <v>3.4464</v>
+      </c>
+      <c r="F50">
+        <v>3.4464</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>7.18</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0.494</v>
+      </c>
+      <c r="K50">
+        <v>0.452</v>
+      </c>
+      <c r="L50">
+        <v>0.04199999999999998</v>
+      </c>
+      <c r="M50">
+        <v>0.6331036799999999</v>
+      </c>
+      <c r="N50">
+        <v>-0.59110368</v>
+      </c>
+      <c r="O50">
+        <v>-0.08866555199999999</v>
+      </c>
+      <c r="P50">
+        <v>-0.502438128</v>
+      </c>
+      <c r="Q50">
+        <v>-0.05043812799999997</v>
+      </c>
+      <c r="R50">
+        <v>0.923076923076923</v>
+      </c>
+      <c r="S50">
+        <v>0.1277568699157227</v>
+      </c>
+      <c r="T50">
+        <v>1.890320019671256</v>
+      </c>
+      <c r="U50">
+        <v>0.1837</v>
+      </c>
+      <c r="V50">
+        <v>0.00995097674996929</v>
+      </c>
+      <c r="W50">
+        <v>0.1818720055710306</v>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y50">
+        <v>0.06633984499979517</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>0.49</v>
+      </c>
+      <c r="B51">
+        <v>0.1554761350302705</v>
+      </c>
+      <c r="C51">
+        <v>-0.4780785759603714</v>
+      </c>
+      <c r="D51">
+        <v>3.040121424039628</v>
+      </c>
+      <c r="E51">
+        <v>3.5182</v>
+      </c>
+      <c r="F51">
+        <v>3.5182</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>7.18</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0.494</v>
+      </c>
+      <c r="K51">
+        <v>0.452</v>
+      </c>
+      <c r="L51">
+        <v>0.04199999999999998</v>
+      </c>
+      <c r="M51">
+        <v>0.6462933399999999</v>
+      </c>
+      <c r="N51">
+        <v>-0.6042933399999999</v>
+      </c>
+      <c r="O51">
+        <v>-0.09064400099999999</v>
+      </c>
+      <c r="P51">
+        <v>-0.5136493389999999</v>
+      </c>
+      <c r="Q51">
+        <v>-0.06164933899999986</v>
+      </c>
+      <c r="R51">
+        <v>0.9607843137254901</v>
+      </c>
+      <c r="S51">
+        <v>0.1300795536395604</v>
+      </c>
+      <c r="T51">
+        <v>1.927385118096183</v>
+      </c>
+      <c r="U51">
+        <v>0.1837</v>
+      </c>
+      <c r="V51">
+        <v>0.009747895591806652</v>
+      </c>
+      <c r="W51">
+        <v>0.1819093115797851</v>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y51">
+        <v>0.06498597061204447</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>0.5</v>
+      </c>
+      <c r="B52">
+        <v>0.1572201350302705</v>
+      </c>
+      <c r="C52">
+        <v>-0.5857220516470329</v>
+      </c>
+      <c r="D52">
+        <v>3.004277948352967</v>
+      </c>
+      <c r="E52">
+        <v>3.59</v>
+      </c>
+      <c r="F52">
+        <v>3.59</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>7.18</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0.494</v>
+      </c>
+      <c r="K52">
+        <v>0.452</v>
+      </c>
+      <c r="L52">
+        <v>0.04199999999999998</v>
+      </c>
+      <c r="M52">
+        <v>0.6594829999999999</v>
+      </c>
+      <c r="N52">
+        <v>-0.617483</v>
+      </c>
+      <c r="O52">
+        <v>-0.09262245</v>
+      </c>
+      <c r="P52">
+        <v>-0.52486055</v>
+      </c>
+      <c r="Q52">
+        <v>-0.07286054999999997</v>
+      </c>
+      <c r="R52">
+        <v>1</v>
+      </c>
+      <c r="S52">
+        <v>0.1324951447123516</v>
+      </c>
+      <c r="T52">
+        <v>1.965932820458106</v>
+      </c>
+      <c r="U52">
+        <v>0.1837</v>
+      </c>
+      <c r="V52">
+        <v>0.00955293767997052</v>
+      </c>
+      <c r="W52">
+        <v>0.1819451253481894</v>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y52">
+        <v>0.06368625119980342</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>0.51</v>
+      </c>
+      <c r="B53">
+        <v>0.1589641350302705</v>
+      </c>
+      <c r="C53">
+        <v>-0.6925301766120948</v>
+      </c>
+      <c r="D53">
+        <v>2.969269823387905</v>
+      </c>
+      <c r="E53">
+        <v>3.6618</v>
+      </c>
+      <c r="F53">
+        <v>3.6618</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>7.18</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0.494</v>
+      </c>
+      <c r="K53">
+        <v>0.452</v>
+      </c>
+      <c r="L53">
+        <v>0.04199999999999998</v>
+      </c>
+      <c r="M53">
+        <v>0.67267266</v>
+      </c>
+      <c r="N53">
+        <v>-0.6306726600000001</v>
+      </c>
+      <c r="O53">
+        <v>-0.09460089900000002</v>
+      </c>
+      <c r="P53">
+        <v>-0.5360717610000001</v>
+      </c>
+      <c r="Q53">
+        <v>-0.08407176100000008</v>
+      </c>
+      <c r="R53">
+        <v>1.040816326530612</v>
+      </c>
+      <c r="S53">
+        <v>0.1350093313391343</v>
+      </c>
+      <c r="T53">
+        <v>2.006053898426639</v>
+      </c>
+      <c r="U53">
+        <v>0.1837</v>
+      </c>
+      <c r="V53">
+        <v>0.009365625176441683</v>
+      </c>
+      <c r="W53">
+        <v>0.1819795346550877</v>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y53">
+        <v>0.06243750117627778</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>0.52</v>
+      </c>
+      <c r="B54">
+        <v>0.1607081350302705</v>
+      </c>
+      <c r="C54">
+        <v>-0.798531816906741</v>
+      </c>
+      <c r="D54">
+        <v>2.935068183093259</v>
+      </c>
+      <c r="E54">
+        <v>3.7336</v>
+      </c>
+      <c r="F54">
+        <v>3.7336</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>7.18</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0.494</v>
+      </c>
+      <c r="K54">
+        <v>0.452</v>
+      </c>
+      <c r="L54">
+        <v>0.04199999999999998</v>
+      </c>
+      <c r="M54">
+        <v>0.68586232</v>
+      </c>
+      <c r="N54">
+        <v>-0.64386232</v>
+      </c>
+      <c r="O54">
+        <v>-0.096579348</v>
+      </c>
+      <c r="P54">
+        <v>-0.547282972</v>
+      </c>
+      <c r="Q54">
+        <v>-0.09528297199999997</v>
+      </c>
+      <c r="R54">
+        <v>1.083333333333333</v>
+      </c>
+      <c r="S54">
+        <v>0.1376282757420329</v>
+      </c>
+      <c r="T54">
+        <v>2.047846687977194</v>
+      </c>
+      <c r="U54">
+        <v>0.1837</v>
+      </c>
+      <c r="V54">
+        <v>0.009185516999971652</v>
+      </c>
+      <c r="W54">
+        <v>0.1820126205271052</v>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y54">
+        <v>0.06123677999981114</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>0.53</v>
+      </c>
+      <c r="B55">
+        <v>0.1624521350302705</v>
+      </c>
+      <c r="C55">
+        <v>-0.9037545237485549</v>
+      </c>
+      <c r="D55">
+        <v>2.901645476251445</v>
+      </c>
+      <c r="E55">
+        <v>3.8054</v>
+      </c>
+      <c r="F55">
+        <v>3.8054</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>7.18</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0.494</v>
+      </c>
+      <c r="K55">
+        <v>0.452</v>
+      </c>
+      <c r="L55">
+        <v>0.04199999999999998</v>
+      </c>
+      <c r="M55">
+        <v>0.69905198</v>
+      </c>
+      <c r="N55">
+        <v>-0.6570519800000001</v>
+      </c>
+      <c r="O55">
+        <v>-0.09855779700000002</v>
+      </c>
+      <c r="P55">
+        <v>-0.5584941830000001</v>
+      </c>
+      <c r="Q55">
+        <v>-0.1064941830000001</v>
+      </c>
+      <c r="R55">
+        <v>1.127659574468085</v>
+      </c>
+      <c r="S55">
+        <v>0.1403586645876081</v>
+      </c>
+      <c r="T55">
+        <v>2.091417894104369</v>
+      </c>
+      <c r="U55">
+        <v>0.1837</v>
+      </c>
+      <c r="V55">
+        <v>0.009012205358462753</v>
+      </c>
+      <c r="W55">
+        <v>0.1820444578756504</v>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y55">
+        <v>0.06008136905641825</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>0.54</v>
+      </c>
+      <c r="B56">
+        <v>0.1641961350302705</v>
+      </c>
+      <c r="C56">
+        <v>-1.008224607541115</v>
+      </c>
+      <c r="D56">
+        <v>2.868975392458885</v>
+      </c>
+      <c r="E56">
+        <v>3.8772</v>
+      </c>
+      <c r="F56">
+        <v>3.8772</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>7.18</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0.494</v>
+      </c>
+      <c r="K56">
+        <v>0.452</v>
+      </c>
+      <c r="L56">
+        <v>0.04199999999999998</v>
+      </c>
+      <c r="M56">
+        <v>0.71224164</v>
+      </c>
+      <c r="N56">
+        <v>-0.67024164</v>
+      </c>
+      <c r="O56">
+        <v>-0.100536246</v>
+      </c>
+      <c r="P56">
+        <v>-0.569705394</v>
+      </c>
+      <c r="Q56">
+        <v>-0.117705394</v>
+      </c>
+      <c r="R56">
+        <v>1.173913043478261</v>
+      </c>
+      <c r="S56">
+        <v>0.1432077659916865</v>
+      </c>
+      <c r="T56">
+        <v>2.136883500497941</v>
+      </c>
+      <c r="U56">
+        <v>0.1837</v>
+      </c>
+      <c r="V56">
+        <v>0.008845312666639368</v>
+      </c>
+      <c r="W56">
+        <v>0.1820751160631384</v>
+      </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y56">
+        <v>0.05896875111092925</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>0.55</v>
+      </c>
+      <c r="B57">
+        <v>0.1659401350302706</v>
+      </c>
+      <c r="C57">
+        <v>-1.111967206948868</v>
+      </c>
+      <c r="D57">
+        <v>2.837032793051132</v>
+      </c>
+      <c r="E57">
+        <v>3.949</v>
+      </c>
+      <c r="F57">
+        <v>3.949</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>7.18</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0.494</v>
+      </c>
+      <c r="K57">
+        <v>0.452</v>
+      </c>
+      <c r="L57">
+        <v>0.04199999999999998</v>
+      </c>
+      <c r="M57">
+        <v>0.7254313000000001</v>
+      </c>
+      <c r="N57">
+        <v>-0.6834313000000001</v>
+      </c>
+      <c r="O57">
+        <v>-0.102514695</v>
+      </c>
+      <c r="P57">
+        <v>-0.5809166050000001</v>
+      </c>
+      <c r="Q57">
+        <v>-0.1289166050000001</v>
+      </c>
+      <c r="R57">
+        <v>1.222222222222223</v>
+      </c>
+      <c r="S57">
+        <v>0.1461834941248351</v>
+      </c>
+      <c r="T57">
+        <v>2.184369800509007</v>
+      </c>
+      <c r="U57">
+        <v>0.1837</v>
+      </c>
+      <c r="V57">
+        <v>0.008684488799973196</v>
+      </c>
+      <c r="W57">
+        <v>0.1821046594074449</v>
+      </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y57">
+        <v>0.05789659199982145</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="B58">
+        <v>0.1676841350302705</v>
+      </c>
+      <c r="C58">
+        <v>-1.215006353408427</v>
+      </c>
+      <c r="D58">
+        <v>2.805793646591573</v>
+      </c>
+      <c r="E58">
+        <v>4.0208</v>
+      </c>
+      <c r="F58">
+        <v>4.0208</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>7.18</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0.494</v>
+      </c>
+      <c r="K58">
+        <v>0.452</v>
+      </c>
+      <c r="L58">
+        <v>0.04199999999999998</v>
+      </c>
+      <c r="M58">
+        <v>0.7386209600000001</v>
+      </c>
+      <c r="N58">
+        <v>-0.6966209600000002</v>
+      </c>
+      <c r="O58">
+        <v>-0.104493144</v>
+      </c>
+      <c r="P58">
+        <v>-0.5921278160000002</v>
+      </c>
+      <c r="Q58">
+        <v>-0.1401278160000002</v>
+      </c>
+      <c r="R58">
+        <v>1.272727272727273</v>
+      </c>
+      <c r="S58">
+        <v>0.1492944826276723</v>
+      </c>
+      <c r="T58">
+        <v>2.234014568702394</v>
+      </c>
+      <c r="U58">
+        <v>0.1837</v>
+      </c>
+      <c r="V58">
+        <v>0.008529408642830819</v>
+      </c>
+      <c r="W58">
+        <v>0.182133147632312</v>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y58">
+        <v>0.05686272428553873</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>0.5700000000000001</v>
+      </c>
+      <c r="B59">
+        <v>0.1694281350302705</v>
+      </c>
+      <c r="C59">
+        <v>-1.317365031424196</v>
+      </c>
+      <c r="D59">
+        <v>2.775234968575804</v>
+      </c>
+      <c r="E59">
+        <v>4.0926</v>
+      </c>
+      <c r="F59">
+        <v>4.0926</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>7.18</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0.494</v>
+      </c>
+      <c r="K59">
+        <v>0.452</v>
+      </c>
+      <c r="L59">
+        <v>0.04199999999999998</v>
+      </c>
+      <c r="M59">
+        <v>0.75181062</v>
+      </c>
+      <c r="N59">
+        <v>-0.7098106200000001</v>
+      </c>
+      <c r="O59">
+        <v>-0.106471593</v>
+      </c>
+      <c r="P59">
+        <v>-0.6033390270000001</v>
+      </c>
+      <c r="Q59">
+        <v>-0.1513390270000001</v>
+      </c>
+      <c r="R59">
+        <v>1.325581395348838</v>
+      </c>
+      <c r="S59">
+        <v>0.1525501682701763</v>
+      </c>
+      <c r="T59">
+        <v>2.285968395881519</v>
+      </c>
+      <c r="U59">
+        <v>0.1837</v>
+      </c>
+      <c r="V59">
+        <v>0.008379769894710981</v>
+      </c>
+      <c r="W59">
+        <v>0.1821606362703416</v>
+      </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y59">
+        <v>0.05586513263140647</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>0.58</v>
+      </c>
+      <c r="B60">
+        <v>0.1711721350302705</v>
+      </c>
+      <c r="C60">
+        <v>-1.419065234966276</v>
+      </c>
+      <c r="D60">
+        <v>2.745334765033724</v>
+      </c>
+      <c r="E60">
+        <v>4.1644</v>
+      </c>
+      <c r="F60">
+        <v>4.1644</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>7.18</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0.494</v>
+      </c>
+      <c r="K60">
+        <v>0.452</v>
+      </c>
+      <c r="L60">
+        <v>0.04199999999999998</v>
+      </c>
+      <c r="M60">
+        <v>0.76500028</v>
+      </c>
+      <c r="N60">
+        <v>-0.7230002799999999</v>
+      </c>
+      <c r="O60">
+        <v>-0.108450042</v>
+      </c>
+      <c r="P60">
+        <v>-0.614550238</v>
+      </c>
+      <c r="Q60">
+        <v>-0.162550238</v>
+      </c>
+      <c r="R60">
+        <v>1.380952380952381</v>
+      </c>
+      <c r="S60">
+        <v>0.1559608865623233</v>
+      </c>
+      <c r="T60">
+        <v>2.340396214831078</v>
+      </c>
+      <c r="U60">
+        <v>0.1837</v>
+      </c>
+      <c r="V60">
+        <v>0.008235291103422859</v>
+      </c>
+      <c r="W60">
+        <v>0.1821871770243012</v>
+      </c>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y60">
+        <v>0.05490194068948584</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>0.59</v>
+      </c>
+      <c r="B61">
+        <v>0.1729161350302705</v>
+      </c>
+      <c r="C61">
+        <v>-1.52012802026146</v>
+      </c>
+      <c r="D61">
+        <v>2.716071979738539</v>
+      </c>
+      <c r="E61">
+        <v>4.236199999999999</v>
+      </c>
+      <c r="F61">
+        <v>4.236199999999999</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>7.18</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0.494</v>
+      </c>
+      <c r="K61">
+        <v>0.452</v>
+      </c>
+      <c r="L61">
+        <v>0.04199999999999998</v>
+      </c>
+      <c r="M61">
+        <v>0.7781899399999999</v>
+      </c>
+      <c r="N61">
+        <v>-0.7361899399999998</v>
+      </c>
+      <c r="O61">
+        <v>-0.110428491</v>
+      </c>
+      <c r="P61">
+        <v>-0.6257614489999999</v>
+      </c>
+      <c r="Q61">
+        <v>-0.1737614489999998</v>
+      </c>
+      <c r="R61">
+        <v>1.439024390243902</v>
+      </c>
+      <c r="S61">
+        <v>0.1595379813565263</v>
+      </c>
+      <c r="T61">
+        <v>2.397479049339154</v>
+      </c>
+      <c r="U61">
+        <v>0.1837</v>
+      </c>
+      <c r="V61">
+        <v>0.008095709898280101</v>
+      </c>
+      <c r="W61">
+        <v>0.1822128180916859</v>
+      </c>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y61">
+        <v>0.05397139932186745</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>0.6</v>
+      </c>
+      <c r="B62">
+        <v>0.1746601350302705</v>
+      </c>
+      <c r="C62">
+        <v>-1.620573555243619</v>
+      </c>
+      <c r="D62">
+        <v>2.68742644475638</v>
+      </c>
+      <c r="E62">
+        <v>4.308</v>
+      </c>
+      <c r="F62">
+        <v>4.308</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>7.18</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0.494</v>
+      </c>
+      <c r="K62">
+        <v>0.452</v>
+      </c>
+      <c r="L62">
+        <v>0.04199999999999998</v>
+      </c>
+      <c r="M62">
+        <v>0.7913796</v>
+      </c>
+      <c r="N62">
+        <v>-0.7493795999999999</v>
+      </c>
+      <c r="O62">
+        <v>-0.11240694</v>
+      </c>
+      <c r="P62">
+        <v>-0.63697266</v>
+      </c>
+      <c r="Q62">
+        <v>-0.18497266</v>
+      </c>
+      <c r="R62">
+        <v>1.5</v>
+      </c>
+      <c r="S62">
+        <v>0.1632939308904395</v>
+      </c>
+      <c r="T62">
+        <v>2.457416025572633</v>
+      </c>
+      <c r="U62">
+        <v>0.1837</v>
+      </c>
+      <c r="V62">
+        <v>0.007960781399975433</v>
+      </c>
+      <c r="W62">
+        <v>0.1822376044568245</v>
+      </c>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y62">
+        <v>0.05307187599983632</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>0.61</v>
+      </c>
+      <c r="B63">
+        <v>0.1764041350302705</v>
+      </c>
+      <c r="C63">
+        <v>-1.720421165907509</v>
+      </c>
+      <c r="D63">
+        <v>2.65937883409249</v>
+      </c>
+      <c r="E63">
+        <v>4.379799999999999</v>
+      </c>
+      <c r="F63">
+        <v>4.379799999999999</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>7.18</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0.494</v>
+      </c>
+      <c r="K63">
+        <v>0.452</v>
+      </c>
+      <c r="L63">
+        <v>0.04199999999999998</v>
+      </c>
+      <c r="M63">
+        <v>0.80456926</v>
+      </c>
+      <c r="N63">
+        <v>-0.76256926</v>
+      </c>
+      <c r="O63">
+        <v>-0.114385389</v>
+      </c>
+      <c r="P63">
+        <v>-0.6481838710000001</v>
+      </c>
+      <c r="Q63">
+        <v>-0.1961838710000001</v>
+      </c>
+      <c r="R63">
+        <v>1.564102564102564</v>
+      </c>
+      <c r="S63">
+        <v>0.1672424932209636</v>
+      </c>
+      <c r="T63">
+        <v>2.520426692895008</v>
+      </c>
+      <c r="U63">
+        <v>0.1837</v>
+      </c>
+      <c r="V63">
+        <v>0.00783027678686108</v>
+      </c>
+      <c r="W63">
+        <v>0.1822615781542536</v>
+      </c>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y63">
+        <v>0.05220184524574045</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>0.62</v>
+      </c>
+      <c r="B64">
+        <v>0.1781481350302705</v>
+      </c>
+      <c r="C64">
+        <v>-1.819689379789918</v>
+      </c>
+      <c r="D64">
+        <v>2.631910620210082</v>
+      </c>
+      <c r="E64">
+        <v>4.4516</v>
+      </c>
+      <c r="F64">
+        <v>4.4516</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>7.18</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0.494</v>
+      </c>
+      <c r="K64">
+        <v>0.452</v>
+      </c>
+      <c r="L64">
+        <v>0.04199999999999998</v>
+      </c>
+      <c r="M64">
+        <v>0.8177589200000001</v>
+      </c>
+      <c r="N64">
+        <v>-0.7757589200000001</v>
+      </c>
+      <c r="O64">
+        <v>-0.116363838</v>
+      </c>
+      <c r="P64">
+        <v>-0.6593950820000001</v>
+      </c>
+      <c r="Q64">
+        <v>-0.2073950820000001</v>
+      </c>
+      <c r="R64">
+        <v>1.631578947368421</v>
+      </c>
+      <c r="S64">
+        <v>0.1713988746215152</v>
+      </c>
+      <c r="T64">
+        <v>2.586753711129087</v>
+      </c>
+      <c r="U64">
+        <v>0.1837</v>
+      </c>
+      <c r="V64">
+        <v>0.007703981999976224</v>
+      </c>
+      <c r="W64">
+        <v>0.1822847785066044</v>
+      </c>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y64">
+        <v>0.05135987999984137</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>0.63</v>
+      </c>
+      <c r="B65">
+        <v>0.1798921350302705</v>
+      </c>
+      <c r="C65">
+        <v>-1.918395966783697</v>
+      </c>
+      <c r="D65">
+        <v>2.605004033216303</v>
+      </c>
+      <c r="E65">
+        <v>4.5234</v>
+      </c>
+      <c r="F65">
+        <v>4.5234</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>7.18</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0.494</v>
+      </c>
+      <c r="K65">
+        <v>0.452</v>
+      </c>
+      <c r="L65">
+        <v>0.04199999999999998</v>
+      </c>
+      <c r="M65">
+        <v>0.8309485799999999</v>
+      </c>
+      <c r="N65">
+        <v>-0.78894858</v>
+      </c>
+      <c r="O65">
+        <v>-0.118342287</v>
+      </c>
+      <c r="P65">
+        <v>-0.6706062930000001</v>
+      </c>
+      <c r="Q65">
+        <v>-0.2186062930000001</v>
+      </c>
+      <c r="R65">
+        <v>1.702702702702703</v>
+      </c>
+      <c r="S65">
+        <v>0.1757799252869616</v>
+      </c>
+      <c r="T65">
+        <v>2.656665973592036</v>
+      </c>
+      <c r="U65">
+        <v>0.1837</v>
+      </c>
+      <c r="V65">
+        <v>0.007581696571405173</v>
+      </c>
+      <c r="W65">
+        <v>0.1823072423398329</v>
+      </c>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y65">
+        <v>0.05054464380936774</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>0.64</v>
+      </c>
+      <c r="B66">
+        <v>0.1816361350302705</v>
+      </c>
+      <c r="C66">
+        <v>-2.016557977473627</v>
+      </c>
+      <c r="D66">
+        <v>2.578642022526373</v>
+      </c>
+      <c r="E66">
+        <v>4.5952</v>
+      </c>
+      <c r="F66">
+        <v>4.5952</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>7.18</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0.494</v>
+      </c>
+      <c r="K66">
+        <v>0.452</v>
+      </c>
+      <c r="L66">
+        <v>0.04199999999999998</v>
+      </c>
+      <c r="M66">
+        <v>0.84413824</v>
+      </c>
+      <c r="N66">
+        <v>-0.8021382400000001</v>
+      </c>
+      <c r="O66">
+        <v>-0.120320736</v>
+      </c>
+      <c r="P66">
+        <v>-0.6818175040000001</v>
+      </c>
+      <c r="Q66">
+        <v>-0.2298175040000001</v>
+      </c>
+      <c r="R66">
+        <v>1.777777777777778</v>
+      </c>
+      <c r="S66">
+        <v>0.1804043676560439</v>
+      </c>
+      <c r="T66">
+        <v>2.730462250636259</v>
+      </c>
+      <c r="U66">
+        <v>0.1837</v>
+      </c>
+      <c r="V66">
+        <v>0.007463232562476967</v>
+      </c>
+      <c r="W66">
+        <v>0.182329004178273</v>
+      </c>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y66">
+        <v>0.04975488374984638</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>0.65</v>
+      </c>
+      <c r="B67">
+        <v>0.1833801350302705</v>
+      </c>
+      <c r="C67">
+        <v>-2.11419177916791</v>
+      </c>
+      <c r="D67">
+        <v>2.55280822083209</v>
+      </c>
+      <c r="E67">
+        <v>4.667</v>
+      </c>
+      <c r="F67">
+        <v>4.667</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>7.18</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0.494</v>
+      </c>
+      <c r="K67">
+        <v>0.452</v>
+      </c>
+      <c r="L67">
+        <v>0.04199999999999998</v>
+      </c>
+      <c r="M67">
+        <v>0.8573279</v>
+      </c>
+      <c r="N67">
+        <v>-0.8153279</v>
+      </c>
+      <c r="O67">
+        <v>-0.122299185</v>
+      </c>
+      <c r="P67">
+        <v>-0.693028715</v>
+      </c>
+      <c r="Q67">
+        <v>-0.2410287149999999</v>
+      </c>
+      <c r="R67">
+        <v>1.857142857142857</v>
+      </c>
+      <c r="S67">
+        <v>0.185293063874788</v>
+      </c>
+      <c r="T67">
+        <v>2.808475457797295</v>
+      </c>
+      <c r="U67">
+        <v>0.1837</v>
+      </c>
+      <c r="V67">
+        <v>0.007348413599977321</v>
+      </c>
+      <c r="W67">
+        <v>0.1823500964216842</v>
+      </c>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y67">
+        <v>0.04898942399984885</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>0.66</v>
+      </c>
+      <c r="B68">
+        <v>0.1851241350302705</v>
+      </c>
+      <c r="C68">
+        <v>-2.211313089785276</v>
+      </c>
+      <c r="D68">
+        <v>2.527486910214724</v>
+      </c>
+      <c r="E68">
+        <v>4.7388</v>
+      </c>
+      <c r="F68">
+        <v>4.7388</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>7.18</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0.494</v>
+      </c>
+      <c r="K68">
+        <v>0.452</v>
+      </c>
+      <c r="L68">
+        <v>0.04199999999999998</v>
+      </c>
+      <c r="M68">
+        <v>0.87051756</v>
+      </c>
+      <c r="N68">
+        <v>-0.8285175600000001</v>
+      </c>
+      <c r="O68">
+        <v>-0.124277634</v>
+      </c>
+      <c r="P68">
+        <v>-0.7042399260000001</v>
+      </c>
+      <c r="Q68">
+        <v>-0.2522399260000001</v>
+      </c>
+      <c r="R68">
+        <v>1.941176470588236</v>
+      </c>
+      <c r="S68">
+        <v>0.1904693304593406</v>
+      </c>
+      <c r="T68">
+        <v>2.891077677144274</v>
+      </c>
+      <c r="U68">
+        <v>0.1837</v>
+      </c>
+      <c r="V68">
+        <v>0.007237073999977665</v>
+      </c>
+      <c r="W68">
+        <v>0.1823705495062041</v>
+      </c>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y68">
+        <v>0.04824715999985107</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>0.67</v>
+      </c>
+      <c r="B69">
+        <v>0.1868681350302705</v>
+      </c>
+      <c r="C69">
+        <v>-2.307937009745143</v>
+      </c>
+      <c r="D69">
+        <v>2.502662990254857</v>
+      </c>
+      <c r="E69">
+        <v>4.8106</v>
+      </c>
+      <c r="F69">
+        <v>4.8106</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>7.18</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0.494</v>
+      </c>
+      <c r="K69">
+        <v>0.452</v>
+      </c>
+      <c r="L69">
+        <v>0.04199999999999998</v>
+      </c>
+      <c r="M69">
+        <v>0.88370722</v>
+      </c>
+      <c r="N69">
+        <v>-0.84170722</v>
+      </c>
+      <c r="O69">
+        <v>-0.126256083</v>
+      </c>
+      <c r="P69">
+        <v>-0.715451137</v>
+      </c>
+      <c r="Q69">
+        <v>-0.2634511369999999</v>
+      </c>
+      <c r="R69">
+        <v>2.030303030303031</v>
+      </c>
+      <c r="S69">
+        <v>0.1959593101702297</v>
+      </c>
+      <c r="T69">
+        <v>2.978686091603192</v>
+      </c>
+      <c r="U69">
+        <v>0.1837</v>
+      </c>
+      <c r="V69">
+        <v>0.007129057970127251</v>
+      </c>
+      <c r="W69">
+        <v>0.1823903920508876</v>
+      </c>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y69">
+        <v>0.04752705313418171</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>0.68</v>
+      </c>
+      <c r="B70">
+        <v>0.1886121350302705</v>
+      </c>
+      <c r="C70">
+        <v>-2.404078051996789</v>
+      </c>
+      <c r="D70">
+        <v>2.478321948003211</v>
+      </c>
+      <c r="E70">
+        <v>4.882400000000001</v>
+      </c>
+      <c r="F70">
+        <v>4.882400000000001</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>7.18</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0.494</v>
+      </c>
+      <c r="K70">
+        <v>0.452</v>
+      </c>
+      <c r="L70">
+        <v>0.04199999999999998</v>
+      </c>
+      <c r="M70">
+        <v>0.8968968800000001</v>
+      </c>
+      <c r="N70">
+        <v>-0.8548968800000001</v>
+      </c>
+      <c r="O70">
+        <v>-0.128234532</v>
+      </c>
+      <c r="P70">
+        <v>-0.7266623480000001</v>
+      </c>
+      <c r="Q70">
+        <v>-0.2746623480000001</v>
+      </c>
+      <c r="R70">
+        <v>2.125</v>
+      </c>
+      <c r="S70">
+        <v>0.2017924136130494</v>
+      </c>
+      <c r="T70">
+        <v>3.071770031965791</v>
+      </c>
+      <c r="U70">
+        <v>0.1837</v>
+      </c>
+      <c r="V70">
+        <v>0.007024218882331262</v>
+      </c>
+      <c r="W70">
+        <v>0.1824096509913157</v>
+      </c>
+      <c r="X70" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y70">
+        <v>0.04682812588220853</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>0.6900000000000001</v>
+      </c>
+      <c r="B71">
+        <v>0.1903561350302705</v>
+      </c>
+      <c r="C71">
+        <v>-2.499750170312995</v>
+      </c>
+      <c r="D71">
+        <v>2.454449829687006</v>
+      </c>
+      <c r="E71">
+        <v>4.9542</v>
+      </c>
+      <c r="F71">
+        <v>4.9542</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>7.18</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0.494</v>
+      </c>
+      <c r="K71">
+        <v>0.452</v>
+      </c>
+      <c r="L71">
+        <v>0.04199999999999998</v>
+      </c>
+      <c r="M71">
+        <v>0.91008654</v>
+      </c>
+      <c r="N71">
+        <v>-0.86808654</v>
+      </c>
+      <c r="O71">
+        <v>-0.130212981</v>
+      </c>
+      <c r="P71">
+        <v>-0.737873559</v>
+      </c>
+      <c r="Q71">
+        <v>-0.2858735589999999</v>
+      </c>
+      <c r="R71">
+        <v>2.225806451612904</v>
+      </c>
+      <c r="S71">
+        <v>0.2080018463102445</v>
+      </c>
+      <c r="T71">
+        <v>3.170859387835656</v>
+      </c>
+      <c r="U71">
+        <v>0.1837</v>
+      </c>
+      <c r="V71">
+        <v>0.006922418608674289</v>
+      </c>
+      <c r="W71">
+        <v>0.1824283517015865</v>
+      </c>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y71">
+        <v>0.04614945739116194</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="B72">
+        <v>0.1921001350302705</v>
+      </c>
+      <c r="C72">
+        <v>-2.594966785964102</v>
+      </c>
+      <c r="D72">
+        <v>2.431033214035899</v>
+      </c>
+      <c r="E72">
+        <v>5.026000000000001</v>
+      </c>
+      <c r="F72">
+        <v>5.026000000000001</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>7.18</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0.494</v>
+      </c>
+      <c r="K72">
+        <v>0.452</v>
+      </c>
+      <c r="L72">
+        <v>0.04199999999999998</v>
+      </c>
+      <c r="M72">
+        <v>0.9232762000000001</v>
+      </c>
+      <c r="N72">
+        <v>-0.8812762000000001</v>
+      </c>
+      <c r="O72">
+        <v>-0.13219143</v>
+      </c>
+      <c r="P72">
+        <v>-0.7490847700000001</v>
+      </c>
+      <c r="Q72">
+        <v>-0.2970847700000001</v>
+      </c>
+      <c r="R72">
+        <v>2.333333333333334</v>
+      </c>
+      <c r="S72">
+        <v>0.2146252411872527</v>
+      </c>
+      <c r="T72">
+        <v>3.276554700763511</v>
+      </c>
+      <c r="U72">
+        <v>0.1837</v>
+      </c>
+      <c r="V72">
+        <v>0.006823526914264654</v>
+      </c>
+      <c r="W72">
+        <v>0.1824465181058496</v>
+      </c>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y72">
+        <v>0.04549017942843114</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>0.71</v>
+      </c>
+      <c r="B73">
+        <v>0.1938441350302705</v>
+      </c>
+      <c r="C73">
+        <v>-2.689740812879576</v>
+      </c>
+      <c r="D73">
+        <v>2.408059187120424</v>
+      </c>
+      <c r="E73">
+        <v>5.097799999999999</v>
+      </c>
+      <c r="F73">
+        <v>5.097799999999999</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>7.18</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0.494</v>
+      </c>
+      <c r="K73">
+        <v>0.452</v>
+      </c>
+      <c r="L73">
+        <v>0.04199999999999998</v>
+      </c>
+      <c r="M73">
+        <v>0.9364658599999999</v>
+      </c>
+      <c r="N73">
+        <v>-0.8944658599999999</v>
+      </c>
+      <c r="O73">
+        <v>-0.134169879</v>
+      </c>
+      <c r="P73">
+        <v>-0.760295981</v>
+      </c>
+      <c r="Q73">
+        <v>-0.3082959809999999</v>
+      </c>
+      <c r="R73">
+        <v>2.448275862068965</v>
+      </c>
+      <c r="S73">
+        <v>0.2217054219178475</v>
+      </c>
+      <c r="T73">
+        <v>3.389539345617424</v>
+      </c>
+      <c r="U73">
+        <v>0.1837</v>
+      </c>
+      <c r="V73">
+        <v>0.00672742090138769</v>
+      </c>
+      <c r="W73">
+        <v>0.1824641727804151</v>
+      </c>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y73">
+        <v>0.04484947267591788</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>0.72</v>
+      </c>
+      <c r="B74">
+        <v>0.1955881350302705</v>
+      </c>
+      <c r="C74">
+        <v>-2.784084681396246</v>
+      </c>
+      <c r="D74">
+        <v>2.385515318603754</v>
+      </c>
+      <c r="E74">
+        <v>5.1696</v>
+      </c>
+      <c r="F74">
+        <v>5.1696</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>7.18</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0.494</v>
+      </c>
+      <c r="K74">
+        <v>0.452</v>
+      </c>
+      <c r="L74">
+        <v>0.04199999999999998</v>
+      </c>
+      <c r="M74">
+        <v>0.94965552</v>
+      </c>
+      <c r="N74">
+        <v>-0.90765552</v>
+      </c>
+      <c r="O74">
+        <v>-0.136148328</v>
+      </c>
+      <c r="P74">
+        <v>-0.7715071920000001</v>
+      </c>
+      <c r="Q74">
+        <v>-0.3195071920000001</v>
+      </c>
+      <c r="R74">
+        <v>2.571428571428571</v>
+      </c>
+      <c r="S74">
+        <v>0.229291329843485</v>
+      </c>
+      <c r="T74">
+        <v>3.510594322246618</v>
+      </c>
+      <c r="U74">
+        <v>0.1837</v>
+      </c>
+      <c r="V74">
+        <v>0.006633984499979526</v>
+      </c>
+      <c r="W74">
+        <v>0.1824813370473538</v>
+      </c>
+      <c r="X74" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y74">
+        <v>0.04422656333319674</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>0.73</v>
+      </c>
+      <c r="B75">
+        <v>0.1973321350302705</v>
+      </c>
+      <c r="C75">
+        <v>-2.878010360684923</v>
+      </c>
+      <c r="D75">
+        <v>2.363389639315076</v>
+      </c>
+      <c r="E75">
+        <v>5.2414</v>
+      </c>
+      <c r="F75">
+        <v>5.2414</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>7.18</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0.494</v>
+      </c>
+      <c r="K75">
+        <v>0.452</v>
+      </c>
+      <c r="L75">
+        <v>0.04199999999999998</v>
+      </c>
+      <c r="M75">
+        <v>0.96284518</v>
+      </c>
+      <c r="N75">
+        <v>-0.9208451799999999</v>
+      </c>
+      <c r="O75">
+        <v>-0.138126777</v>
+      </c>
+      <c r="P75">
+        <v>-0.782718403</v>
+      </c>
+      <c r="Q75">
+        <v>-0.3307184029999999</v>
+      </c>
+      <c r="R75">
+        <v>2.703703703703703</v>
+      </c>
+      <c r="S75">
+        <v>0.2374391568747251</v>
+      </c>
+      <c r="T75">
+        <v>3.640616334181678</v>
+      </c>
+      <c r="U75">
+        <v>0.1837</v>
+      </c>
+      <c r="V75">
+        <v>0.006543107999979807</v>
+      </c>
+      <c r="W75">
+        <v>0.1824980310604037</v>
+      </c>
+      <c r="X75" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y75">
+        <v>0.04362071999986539</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>0.74</v>
+      </c>
+      <c r="B76">
+        <v>0.1990761350302705</v>
+      </c>
+      <c r="C76">
+        <v>-2.971529379940468</v>
+      </c>
+      <c r="D76">
+        <v>2.341670620059532</v>
+      </c>
+      <c r="E76">
+        <v>5.3132</v>
+      </c>
+      <c r="F76">
+        <v>5.3132</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>7.18</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0.494</v>
+      </c>
+      <c r="K76">
+        <v>0.452</v>
+      </c>
+      <c r="L76">
+        <v>0.04199999999999998</v>
+      </c>
+      <c r="M76">
+        <v>0.9760348400000001</v>
+      </c>
+      <c r="N76">
+        <v>-0.93403484</v>
+      </c>
+      <c r="O76">
+        <v>-0.140105226</v>
+      </c>
+      <c r="P76">
+        <v>-0.7939296140000001</v>
+      </c>
+      <c r="Q76">
+        <v>-0.341929614</v>
+      </c>
+      <c r="R76">
+        <v>2.846153846153846</v>
+      </c>
+      <c r="S76">
+        <v>0.2462137398314453</v>
+      </c>
+      <c r="T76">
+        <v>3.780640039342511</v>
+      </c>
+      <c r="U76">
+        <v>0.1837</v>
+      </c>
+      <c r="V76">
+        <v>0.0064546876216017</v>
+      </c>
+      <c r="W76">
+        <v>0.1825142738839118</v>
+      </c>
+      <c r="X76" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y76">
+        <v>0.04303125081067805</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>0.75</v>
+      </c>
+      <c r="B77">
+        <v>0.2008201350302705</v>
+      </c>
+      <c r="C77">
+        <v>-3.064652848414101</v>
+      </c>
+      <c r="D77">
+        <v>2.320347151585898</v>
+      </c>
+      <c r="E77">
+        <v>5.385</v>
+      </c>
+      <c r="F77">
+        <v>5.385</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>7.18</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0.494</v>
+      </c>
+      <c r="K77">
+        <v>0.452</v>
+      </c>
+      <c r="L77">
+        <v>0.04199999999999998</v>
+      </c>
+      <c r="M77">
+        <v>0.9892245</v>
+      </c>
+      <c r="N77">
+        <v>-0.9472244999999999</v>
+      </c>
+      <c r="O77">
+        <v>-0.142083675</v>
+      </c>
+      <c r="P77">
+        <v>-0.8051408249999999</v>
+      </c>
+      <c r="Q77">
+        <v>-0.3531408249999999</v>
+      </c>
+      <c r="R77">
+        <v>3</v>
+      </c>
+      <c r="S77">
+        <v>0.2556902894247032</v>
+      </c>
+      <c r="T77">
+        <v>3.931865640916212</v>
+      </c>
+      <c r="U77">
+        <v>0.1837</v>
+      </c>
+      <c r="V77">
+        <v>0.006368625119980345</v>
+      </c>
+      <c r="W77">
+        <v>0.1825300835654596</v>
+      </c>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y77">
+        <v>0.04245750079986899</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>0.76</v>
+      </c>
+      <c r="B78">
+        <v>0.2025641350302705</v>
+      </c>
+      <c r="C78">
+        <v>-3.157391474361082</v>
+      </c>
+      <c r="D78">
+        <v>2.299408525638917</v>
+      </c>
+      <c r="E78">
+        <v>5.456799999999999</v>
+      </c>
+      <c r="F78">
+        <v>5.456799999999999</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>7.18</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>0.494</v>
+      </c>
+      <c r="K78">
+        <v>0.452</v>
+      </c>
+      <c r="L78">
+        <v>0.04199999999999998</v>
+      </c>
+      <c r="M78">
+        <v>1.00241416</v>
+      </c>
+      <c r="N78">
+        <v>-0.9604141599999998</v>
+      </c>
+      <c r="O78">
+        <v>-0.144062124</v>
+      </c>
+      <c r="P78">
+        <v>-0.8163520359999998</v>
+      </c>
+      <c r="Q78">
+        <v>-0.3643520359999998</v>
+      </c>
+      <c r="R78">
+        <v>3.166666666666667</v>
+      </c>
+      <c r="S78">
+        <v>0.2659565514840658</v>
+      </c>
+      <c r="T78">
+        <v>4.095693375954388</v>
+      </c>
+      <c r="U78">
+        <v>0.1837</v>
+      </c>
+      <c r="V78">
+        <v>0.006284827421033237</v>
+      </c>
+      <c r="W78">
+        <v>0.1825454772027562</v>
+      </c>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y78">
+        <v>0.04189884947355493</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>0.77</v>
+      </c>
+      <c r="B79">
+        <v>0.2043081350302705</v>
+      </c>
+      <c r="C79">
+        <v>-3.249755582971689</v>
+      </c>
+      <c r="D79">
+        <v>2.278844417028311</v>
+      </c>
+      <c r="E79">
+        <v>5.5286</v>
+      </c>
+      <c r="F79">
+        <v>5.5286</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>7.18</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0.494</v>
+      </c>
+      <c r="K79">
+        <v>0.452</v>
+      </c>
+      <c r="L79">
+        <v>0.04199999999999998</v>
+      </c>
+      <c r="M79">
+        <v>1.01560382</v>
+      </c>
+      <c r="N79">
+        <v>-0.9736038199999999</v>
+      </c>
+      <c r="O79">
+        <v>-0.146040573</v>
+      </c>
+      <c r="P79">
+        <v>-0.8275632469999999</v>
+      </c>
+      <c r="Q79">
+        <v>-0.3755632469999999</v>
+      </c>
+      <c r="R79">
+        <v>3.347826086956522</v>
+      </c>
+      <c r="S79">
+        <v>0.277115531983373</v>
+      </c>
+      <c r="T79">
+        <v>4.273767000995883</v>
+      </c>
+      <c r="U79">
+        <v>0.1837</v>
+      </c>
+      <c r="V79">
+        <v>0.006203206285695142</v>
+      </c>
+      <c r="W79">
+        <v>0.1825604710053178</v>
+      </c>
+      <c r="X79" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y79">
+        <v>0.04135470857130097</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>0.78</v>
+      </c>
+      <c r="B80">
+        <v>0.2060521350302705</v>
+      </c>
+      <c r="C80">
+        <v>-3.341755133348542</v>
+      </c>
+      <c r="D80">
+        <v>2.258644866651458</v>
+      </c>
+      <c r="E80">
+        <v>5.6004</v>
+      </c>
+      <c r="F80">
+        <v>5.6004</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>7.18</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>0.494</v>
+      </c>
+      <c r="K80">
+        <v>0.452</v>
+      </c>
+      <c r="L80">
+        <v>0.04199999999999998</v>
+      </c>
+      <c r="M80">
+        <v>1.02879348</v>
+      </c>
+      <c r="N80">
+        <v>-0.98679348</v>
+      </c>
+      <c r="O80">
+        <v>-0.148019022</v>
+      </c>
+      <c r="P80">
+        <v>-0.8387744580000001</v>
+      </c>
+      <c r="Q80">
+        <v>-0.386774458</v>
+      </c>
+      <c r="R80">
+        <v>3.545454545454546</v>
+      </c>
+      <c r="S80">
+        <v>0.2892889652553445</v>
+      </c>
+      <c r="T80">
+        <v>4.468029137404787</v>
+      </c>
+      <c r="U80">
+        <v>0.1837</v>
+      </c>
+      <c r="V80">
+        <v>0.006123677999981101</v>
+      </c>
+      <c r="W80">
+        <v>0.1825750803514035</v>
+      </c>
+      <c r="X80" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y80">
+        <v>0.04082451999987402</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>0.79</v>
+      </c>
+      <c r="B81">
+        <v>0.2077961350302705</v>
+      </c>
+      <c r="C81">
+        <v>-3.433399734588961</v>
+      </c>
+      <c r="D81">
+        <v>2.238800265411039</v>
+      </c>
+      <c r="E81">
+        <v>5.6722</v>
+      </c>
+      <c r="F81">
+        <v>5.6722</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>7.18</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>0.494</v>
+      </c>
+      <c r="K81">
+        <v>0.452</v>
+      </c>
+      <c r="L81">
+        <v>0.04199999999999998</v>
+      </c>
+      <c r="M81">
+        <v>1.04198314</v>
+      </c>
+      <c r="N81">
+        <v>-0.9999831400000001</v>
+      </c>
+      <c r="O81">
+        <v>-0.149997471</v>
+      </c>
+      <c r="P81">
+        <v>-0.8499856690000001</v>
+      </c>
+      <c r="Q81">
+        <v>-0.397985669</v>
+      </c>
+      <c r="R81">
+        <v>3.761904761904763</v>
+      </c>
+      <c r="S81">
+        <v>0.3026217731246467</v>
+      </c>
+      <c r="T81">
+        <v>4.680792429662159</v>
+      </c>
+      <c r="U81">
+        <v>0.1837</v>
+      </c>
+      <c r="V81">
+        <v>0.006046163088588934</v>
+      </c>
+      <c r="W81">
+        <v>0.1825893198406262</v>
+      </c>
+      <c r="X81" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y81">
+        <v>0.04030775392392627</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>0.8</v>
+      </c>
+      <c r="B82">
+        <v>0.2095401350302705</v>
+      </c>
+      <c r="C82">
+        <v>-3.524698661026894</v>
+      </c>
+      <c r="D82">
+        <v>2.219301338973106</v>
+      </c>
+      <c r="E82">
+        <v>5.744</v>
+      </c>
+      <c r="F82">
+        <v>5.744</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>7.18</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0.494</v>
+      </c>
+      <c r="K82">
+        <v>0.452</v>
+      </c>
+      <c r="L82">
+        <v>0.04199999999999998</v>
+      </c>
+      <c r="M82">
+        <v>1.0551728</v>
+      </c>
+      <c r="N82">
+        <v>-1.0131728</v>
+      </c>
+      <c r="O82">
+        <v>-0.15197592</v>
+      </c>
+      <c r="P82">
+        <v>-0.8611968800000001</v>
+      </c>
+      <c r="Q82">
+        <v>-0.40919688</v>
+      </c>
+      <c r="R82">
+        <v>4.000000000000001</v>
+      </c>
+      <c r="S82">
+        <v>0.317287861780879</v>
+      </c>
+      <c r="T82">
+        <v>4.914832051145266</v>
+      </c>
+      <c r="U82">
+        <v>0.1837</v>
+      </c>
+      <c r="V82">
+        <v>0.005970586049981574</v>
+      </c>
+      <c r="W82">
+        <v>0.1826032033426184</v>
+      </c>
+      <c r="X82" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y82">
+        <v>0.03980390699987724</v>
+      </c>
+      <c r="Z82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="B83">
+        <v>0.2112841350302705</v>
+      </c>
+      <c r="C83">
+        <v>-3.615660866685219</v>
+      </c>
+      <c r="D83">
+        <v>2.200139133314781</v>
+      </c>
+      <c r="E83">
+        <v>5.8158</v>
+      </c>
+      <c r="F83">
+        <v>5.8158</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>7.18</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>0.494</v>
+      </c>
+      <c r="K83">
+        <v>0.452</v>
+      </c>
+      <c r="L83">
+        <v>0.04199999999999998</v>
+      </c>
+      <c r="M83">
+        <v>1.06836246</v>
+      </c>
+      <c r="N83">
+        <v>-1.02636246</v>
+      </c>
+      <c r="O83">
+        <v>-0.153954369</v>
+      </c>
+      <c r="P83">
+        <v>-0.8724080910000001</v>
+      </c>
+      <c r="Q83">
+        <v>-0.420408091</v>
+      </c>
+      <c r="R83">
+        <v>4.263157894736843</v>
+      </c>
+      <c r="S83">
+        <v>0.3334977492430306</v>
+      </c>
+      <c r="T83">
+        <v>5.173507422258176</v>
+      </c>
+      <c r="U83">
+        <v>0.1837</v>
+      </c>
+      <c r="V83">
+        <v>0.005896875111092912</v>
+      </c>
+      <c r="W83">
+        <v>0.1826167440420922</v>
+      </c>
+      <c r="X83" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y83">
+        <v>0.03931250074061943</v>
+      </c>
+      <c r="Z83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="B84">
+        <v>0.2130281350302705</v>
+      </c>
+      <c r="C84">
+        <v>-3.706294998985753</v>
+      </c>
+      <c r="D84">
+        <v>2.181305001014247</v>
+      </c>
+      <c r="E84">
+        <v>5.8876</v>
+      </c>
+      <c r="F84">
+        <v>5.8876</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>7.18</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0.494</v>
+      </c>
+      <c r="K84">
+        <v>0.452</v>
+      </c>
+      <c r="L84">
+        <v>0.04199999999999998</v>
+      </c>
+      <c r="M84">
+        <v>1.08155212</v>
+      </c>
+      <c r="N84">
+        <v>-1.03955212</v>
+      </c>
+      <c r="O84">
+        <v>-0.155932818</v>
+      </c>
+      <c r="P84">
+        <v>-0.8836193019999999</v>
+      </c>
+      <c r="Q84">
+        <v>-0.4316193019999999</v>
+      </c>
+      <c r="R84">
+        <v>4.555555555555557</v>
+      </c>
+      <c r="S84">
+        <v>0.3515087353120878</v>
+      </c>
+      <c r="T84">
+        <v>5.460924501272518</v>
+      </c>
+      <c r="U84">
+        <v>0.1837</v>
+      </c>
+      <c r="V84">
+        <v>0.005824961999982023</v>
+      </c>
+      <c r="W84">
+        <v>0.1826299544806033</v>
+      </c>
+      <c r="X84" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y84">
+        <v>0.03883307999988017</v>
+      </c>
+      <c r="Z84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>0.8300000000000001</v>
+      </c>
+      <c r="B85">
+        <v>0.2147721350302705</v>
+      </c>
+      <c r="C85">
+        <v>-3.796609411761035</v>
+      </c>
+      <c r="D85">
+        <v>2.162790588238965</v>
+      </c>
+      <c r="E85">
+        <v>5.9594</v>
+      </c>
+      <c r="F85">
+        <v>5.9594</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>7.18</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>0.494</v>
+      </c>
+      <c r="K85">
+        <v>0.452</v>
+      </c>
+      <c r="L85">
+        <v>0.04199999999999998</v>
+      </c>
+      <c r="M85">
+        <v>1.09474178</v>
+      </c>
+      <c r="N85">
+        <v>-1.05274178</v>
+      </c>
+      <c r="O85">
+        <v>-0.157911267</v>
+      </c>
+      <c r="P85">
+        <v>-0.894830513</v>
+      </c>
+      <c r="Q85">
+        <v>-0.442830513</v>
+      </c>
+      <c r="R85">
+        <v>4.882352941176473</v>
+      </c>
+      <c r="S85">
+        <v>0.3716386609186813</v>
+      </c>
+      <c r="T85">
+        <v>5.78215535428855</v>
+      </c>
+      <c r="U85">
+        <v>0.1837</v>
+      </c>
+      <c r="V85">
+        <v>0.005754781734921998</v>
+      </c>
+      <c r="W85">
+        <v>0.1826428465952948</v>
+      </c>
+      <c r="X85" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y85">
+        <v>0.0383652115661467</v>
+      </c>
+      <c r="Z85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>0.84</v>
+      </c>
+      <c r="B86">
+        <v>0.2165161350302705</v>
+      </c>
+      <c r="C86">
+        <v>-3.886612177609059</v>
+      </c>
+      <c r="D86">
+        <v>2.144587822390941</v>
+      </c>
+      <c r="E86">
+        <v>6.031199999999999</v>
+      </c>
+      <c r="F86">
+        <v>6.031199999999999</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <v>7.18</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>0.494</v>
+      </c>
+      <c r="K86">
+        <v>0.452</v>
+      </c>
+      <c r="L86">
+        <v>0.04199999999999998</v>
+      </c>
+      <c r="M86">
+        <v>1.10793144</v>
+      </c>
+      <c r="N86">
+        <v>-1.06593144</v>
+      </c>
+      <c r="O86">
+        <v>-0.159889716</v>
+      </c>
+      <c r="P86">
+        <v>-0.9060417239999998</v>
+      </c>
+      <c r="Q86">
+        <v>-0.4540417239999998</v>
+      </c>
+      <c r="R86">
+        <v>5.249999999999999</v>
+      </c>
+      <c r="S86">
+        <v>0.3942848272260986</v>
+      </c>
+      <c r="T86">
+        <v>6.143540063931581</v>
+      </c>
+      <c r="U86">
+        <v>0.1837</v>
+      </c>
+      <c r="V86">
+        <v>0.005686272428553881</v>
+      </c>
+      <c r="W86">
+        <v>0.1826554317548746</v>
+      </c>
+      <c r="X86" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y86">
+        <v>0.03790848285702597</v>
+      </c>
+      <c r="Z86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>0.85</v>
+      </c>
+      <c r="B87">
+        <v>0.2182601350302705</v>
+      </c>
+      <c r="C87">
+        <v>-3.976311099629319</v>
+      </c>
+      <c r="D87">
+        <v>2.126688900370681</v>
+      </c>
+      <c r="E87">
+        <v>6.103</v>
+      </c>
+      <c r="F87">
+        <v>6.103</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>7.18</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>0.494</v>
+      </c>
+      <c r="K87">
+        <v>0.452</v>
+      </c>
+      <c r="L87">
+        <v>0.04199999999999998</v>
+      </c>
+      <c r="M87">
+        <v>1.1211211</v>
+      </c>
+      <c r="N87">
+        <v>-1.0791211</v>
+      </c>
+      <c r="O87">
+        <v>-0.161868165</v>
+      </c>
+      <c r="P87">
+        <v>-0.9172529349999998</v>
+      </c>
+      <c r="Q87">
+        <v>-0.4652529349999998</v>
+      </c>
+      <c r="R87">
+        <v>5.666666666666666</v>
+      </c>
+      <c r="S87">
+        <v>0.4199504823745053</v>
+      </c>
+      <c r="T87">
+        <v>6.553109401527021</v>
+      </c>
+      <c r="U87">
+        <v>0.1837</v>
+      </c>
+      <c r="V87">
+        <v>0.005619375105865011</v>
+      </c>
+      <c r="W87">
+        <v>0.1826677207930526</v>
+      </c>
+      <c r="X87" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y87">
+        <v>0.03746250070576684</v>
+      </c>
+      <c r="Z87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>0.86</v>
+      </c>
+      <c r="B88">
+        <v>0.2200041350302705</v>
+      </c>
+      <c r="C88">
+        <v>-4.065713722576009</v>
+      </c>
+      <c r="D88">
+        <v>2.10908627742399</v>
+      </c>
+      <c r="E88">
+        <v>6.174799999999999</v>
+      </c>
+      <c r="F88">
+        <v>6.174799999999999</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <v>7.18</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>0.494</v>
+      </c>
+      <c r="K88">
+        <v>0.452</v>
+      </c>
+      <c r="L88">
+        <v>0.04199999999999998</v>
+      </c>
+      <c r="M88">
+        <v>1.13431076</v>
+      </c>
+      <c r="N88">
+        <v>-1.09231076</v>
+      </c>
+      <c r="O88">
+        <v>-0.163846614</v>
+      </c>
+      <c r="P88">
+        <v>-0.9284641459999999</v>
+      </c>
+      <c r="Q88">
+        <v>-0.4764641459999999</v>
+      </c>
+      <c r="R88">
+        <v>6.142857142857142</v>
+      </c>
+      <c r="S88">
+        <v>0.4492826596869699</v>
+      </c>
+      <c r="T88">
+        <v>7.021188644493236</v>
+      </c>
+      <c r="U88">
+        <v>0.1837</v>
+      </c>
+      <c r="V88">
+        <v>0.005554033534866581</v>
+      </c>
+      <c r="W88">
+        <v>0.182679724039645</v>
+      </c>
+      <c r="X88" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y88">
+        <v>0.03702689023244388</v>
+      </c>
+      <c r="Z88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>0.87</v>
+      </c>
+      <c r="B89">
+        <v>0.2217481350302705</v>
+      </c>
+      <c r="C89">
+        <v>-4.154827343461896</v>
+      </c>
+      <c r="D89">
+        <v>2.091772656538104</v>
+      </c>
+      <c r="E89">
+        <v>6.2466</v>
+      </c>
+      <c r="F89">
+        <v>6.2466</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <v>7.18</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>0.494</v>
+      </c>
+      <c r="K89">
+        <v>0.452</v>
+      </c>
+      <c r="L89">
+        <v>0.04199999999999998</v>
+      </c>
+      <c r="M89">
+        <v>1.14750042</v>
+      </c>
+      <c r="N89">
+        <v>-1.10550042</v>
+      </c>
+      <c r="O89">
+        <v>-0.165825063</v>
+      </c>
+      <c r="P89">
+        <v>-0.939675357</v>
+      </c>
+      <c r="Q89">
+        <v>-0.487675357</v>
+      </c>
+      <c r="R89">
+        <v>6.692307692307692</v>
+      </c>
+      <c r="S89">
+        <v>0.4831274796628907</v>
+      </c>
+      <c r="T89">
+        <v>7.561280078685023</v>
+      </c>
+      <c r="U89">
+        <v>0.1837</v>
+      </c>
+      <c r="V89">
+        <v>0.005490194068948573</v>
+      </c>
+      <c r="W89">
+        <v>0.1826914513495342</v>
+      </c>
+      <c r="X89" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y89">
+        <v>0.03660129379299049</v>
+      </c>
+      <c r="Z89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>0.88</v>
+      </c>
+      <c r="B90">
+        <v>0.2234921350302705</v>
+      </c>
+      <c r="C90">
+        <v>-4.243659021644135</v>
+      </c>
+      <c r="D90">
+        <v>2.074740978355865</v>
+      </c>
+      <c r="E90">
+        <v>6.3184</v>
+      </c>
+      <c r="F90">
+        <v>6.3184</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <v>7.18</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>0.494</v>
+      </c>
+      <c r="K90">
+        <v>0.452</v>
+      </c>
+      <c r="L90">
+        <v>0.04199999999999998</v>
+      </c>
+      <c r="M90">
+        <v>1.16069008</v>
+      </c>
+      <c r="N90">
+        <v>-1.11869008</v>
+      </c>
+      <c r="O90">
+        <v>-0.167803512</v>
+      </c>
+      <c r="P90">
+        <v>-0.9508865679999999</v>
+      </c>
+      <c r="Q90">
+        <v>-0.4988865679999999</v>
+      </c>
+      <c r="R90">
+        <v>7.333333333333334</v>
+      </c>
+      <c r="S90">
+        <v>0.5226131029681317</v>
+      </c>
+      <c r="T90">
+        <v>8.191386751908777</v>
+      </c>
+      <c r="U90">
+        <v>0.1837</v>
+      </c>
+      <c r="V90">
+        <v>0.005427805499983249</v>
+      </c>
+      <c r="W90">
+        <v>0.1827029121296531</v>
+      </c>
+      <c r="X90" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y90">
+        <v>0.03618536999988842</v>
+      </c>
+      <c r="Z90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>0.89</v>
+      </c>
+      <c r="B91">
+        <v>0.2252361350302705</v>
+      </c>
+      <c r="C91">
+        <v>-4.332215588421369</v>
+      </c>
+      <c r="D91">
+        <v>2.057984411578631</v>
+      </c>
+      <c r="E91">
+        <v>6.3902</v>
+      </c>
+      <c r="F91">
+        <v>6.3902</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <v>7.18</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>0.494</v>
+      </c>
+      <c r="K91">
+        <v>0.452</v>
+      </c>
+      <c r="L91">
+        <v>0.04199999999999998</v>
+      </c>
+      <c r="M91">
+        <v>1.17387974</v>
+      </c>
+      <c r="N91">
+        <v>-1.13187974</v>
+      </c>
+      <c r="O91">
+        <v>-0.169781961</v>
+      </c>
+      <c r="P91">
+        <v>-0.962097779</v>
+      </c>
+      <c r="Q91">
+        <v>-0.5100977790000001</v>
+      </c>
+      <c r="R91">
+        <v>8.090909090909092</v>
+      </c>
+      <c r="S91">
+        <v>0.5692779305106891</v>
+      </c>
+      <c r="T91">
+        <v>8.936058274809575</v>
+      </c>
+      <c r="U91">
+        <v>0.1837</v>
+      </c>
+      <c r="V91">
+        <v>0.005366818921331751</v>
+      </c>
+      <c r="W91">
+        <v>0.1827141153641514</v>
+      </c>
+      <c r="X91" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y91">
+        <v>0.03577879280887841</v>
+      </c>
+      <c r="Z91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>0.9</v>
+      </c>
+      <c r="B92">
+        <v>0.2269801350302705</v>
+      </c>
+      <c r="C92">
+        <v>-4.420503656169462</v>
+      </c>
+      <c r="D92">
+        <v>2.041496343830537</v>
+      </c>
+      <c r="E92">
+        <v>6.462</v>
+      </c>
+      <c r="F92">
+        <v>6.462</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <v>7.18</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>0.494</v>
+      </c>
+      <c r="K92">
+        <v>0.452</v>
+      </c>
+      <c r="L92">
+        <v>0.04199999999999998</v>
+      </c>
+      <c r="M92">
+        <v>1.1870694</v>
+      </c>
+      <c r="N92">
+        <v>-1.1450694</v>
+      </c>
+      <c r="O92">
+        <v>-0.17176041</v>
+      </c>
+      <c r="P92">
+        <v>-0.9733089899999999</v>
+      </c>
+      <c r="Q92">
+        <v>-0.5213089899999999</v>
+      </c>
+      <c r="R92">
+        <v>9.000000000000002</v>
+      </c>
+      <c r="S92">
+        <v>0.6252757235617581</v>
+      </c>
+      <c r="T92">
+        <v>9.829664102290534</v>
+      </c>
+      <c r="U92">
+        <v>0.1837</v>
+      </c>
+      <c r="V92">
+        <v>0.005307187599983621</v>
+      </c>
+      <c r="W92">
+        <v>0.182725069637883</v>
+      </c>
+      <c r="X92" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y92">
+        <v>0.03538125066655751</v>
+      </c>
+      <c r="Z92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>0.91</v>
+      </c>
+      <c r="B93">
+        <v>0.2287241350302705</v>
+      </c>
+      <c r="C93">
+        <v>-4.508529627041579</v>
+      </c>
+      <c r="D93">
+        <v>2.025270372958421</v>
+      </c>
+      <c r="E93">
+        <v>6.5338</v>
+      </c>
+      <c r="F93">
+        <v>6.5338</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="H93">
+        <v>7.18</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>0.494</v>
+      </c>
+      <c r="K93">
+        <v>0.452</v>
+      </c>
+      <c r="L93">
+        <v>0.04199999999999998</v>
+      </c>
+      <c r="M93">
+        <v>1.20025906</v>
+      </c>
+      <c r="N93">
+        <v>-1.15825906</v>
+      </c>
+      <c r="O93">
+        <v>-0.173738859</v>
+      </c>
+      <c r="P93">
+        <v>-0.984520201</v>
+      </c>
+      <c r="Q93">
+        <v>-0.5325202010000001</v>
+      </c>
+      <c r="R93">
+        <v>10.11111111111111</v>
+      </c>
+      <c r="S93">
+        <v>0.6937174706241757</v>
+      </c>
+      <c r="T93">
+        <v>10.92184900254504</v>
+      </c>
+      <c r="U93">
+        <v>0.1837</v>
+      </c>
+      <c r="V93">
+        <v>0.005248866857126658</v>
+      </c>
+      <c r="W93">
+        <v>0.1827357831583458</v>
+      </c>
+      <c r="X93" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y93">
+        <v>0.03499244571417781</v>
+      </c>
+      <c r="Z93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>0.92</v>
+      </c>
+      <c r="B94">
+        <v>0.2304681350302705</v>
+      </c>
+      <c r="C94">
+        <v>-4.596299701256637</v>
+      </c>
+      <c r="D94">
+        <v>2.009300298743363</v>
+      </c>
+      <c r="E94">
+        <v>6.6056</v>
+      </c>
+      <c r="F94">
+        <v>6.6056</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+      <c r="H94">
+        <v>7.18</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>0.494</v>
+      </c>
+      <c r="K94">
+        <v>0.452</v>
+      </c>
+      <c r="L94">
+        <v>0.04199999999999998</v>
+      </c>
+      <c r="M94">
+        <v>1.21344872</v>
+      </c>
+      <c r="N94">
+        <v>-1.17144872</v>
+      </c>
+      <c r="O94">
+        <v>-0.175717308</v>
+      </c>
+      <c r="P94">
+        <v>-0.9957314119999999</v>
+      </c>
+      <c r="Q94">
+        <v>-0.5437314119999999</v>
+      </c>
+      <c r="R94">
+        <v>11.50000000000001</v>
+      </c>
+      <c r="S94">
+        <v>0.7792696544521979</v>
+      </c>
+      <c r="T94">
+        <v>12.28708012786317</v>
+      </c>
+      <c r="U94">
+        <v>0.1837</v>
+      </c>
+      <c r="V94">
+        <v>0.005191813956505716</v>
+      </c>
+      <c r="W94">
+        <v>0.1827462637761899</v>
+      </c>
+      <c r="X94" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y94">
+        <v>0.03461209304337154</v>
+      </c>
+      <c r="Z94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>0.93</v>
+      </c>
+      <c r="B95">
+        <v>0.2322121350302705</v>
+      </c>
+      <c r="C95">
+        <v>-4.683819884998687</v>
+      </c>
+      <c r="D95">
+        <v>1.993580115001314</v>
+      </c>
+      <c r="E95">
+        <v>6.6774</v>
+      </c>
+      <c r="F95">
+        <v>6.6774</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95">
+        <v>7.18</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>0.494</v>
+      </c>
+      <c r="K95">
+        <v>0.452</v>
+      </c>
+      <c r="L95">
+        <v>0.04199999999999998</v>
+      </c>
+      <c r="M95">
+        <v>1.22663838</v>
+      </c>
+      <c r="N95">
+        <v>-1.18463838</v>
+      </c>
+      <c r="O95">
+        <v>-0.177695757</v>
+      </c>
+      <c r="P95">
+        <v>-1.006942623</v>
+      </c>
+      <c r="Q95">
+        <v>-0.5549426230000001</v>
+      </c>
+      <c r="R95">
+        <v>13.2857142857143</v>
+      </c>
+      <c r="S95">
+        <v>0.8892653193739405</v>
+      </c>
+      <c r="T95">
+        <v>14.04237728898648</v>
+      </c>
+      <c r="U95">
+        <v>0.1837</v>
+      </c>
+      <c r="V95">
+        <v>0.005135987999984149</v>
+      </c>
+      <c r="W95">
+        <v>0.1827565190044029</v>
+      </c>
+      <c r="X95" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y95">
+        <v>0.0342399199998944</v>
+      </c>
+      <c r="Z95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>0.9400000000000001</v>
+      </c>
+      <c r="B96">
+        <v>0.2339561350302705</v>
+      </c>
+      <c r="C96">
+        <v>-4.771095997948346</v>
+      </c>
+      <c r="D96">
+        <v>1.978104002051654</v>
+      </c>
+      <c r="E96">
+        <v>6.7492</v>
+      </c>
+      <c r="F96">
+        <v>6.7492</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>7.18</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0.494</v>
+      </c>
+      <c r="K96">
+        <v>0.452</v>
+      </c>
+      <c r="L96">
+        <v>0.04199999999999998</v>
+      </c>
+      <c r="M96">
+        <v>1.23982804</v>
+      </c>
+      <c r="N96">
+        <v>-1.19782804</v>
+      </c>
+      <c r="O96">
+        <v>-0.179674206</v>
+      </c>
+      <c r="P96">
+        <v>-1.018153834</v>
+      </c>
+      <c r="Q96">
+        <v>-0.5661538340000001</v>
+      </c>
+      <c r="R96">
+        <v>15.66666666666668</v>
+      </c>
+      <c r="S96">
+        <v>1.035926205936264</v>
+      </c>
+      <c r="T96">
+        <v>16.38277350381757</v>
+      </c>
+      <c r="U96">
+        <v>0.1837</v>
+      </c>
+      <c r="V96">
+        <v>0.005081349829771552</v>
+      </c>
+      <c r="W96">
+        <v>0.182766556036271</v>
+      </c>
+      <c r="X96" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y96">
+        <v>0.03387566553181043</v>
+      </c>
+      <c r="Z96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="B97">
+        <v>0.2357001350302705</v>
+      </c>
+      <c r="C97">
+        <v>-4.858133680466146</v>
+      </c>
+      <c r="D97">
+        <v>1.962866319533854</v>
+      </c>
+      <c r="E97">
+        <v>6.821000000000001</v>
+      </c>
+      <c r="F97">
+        <v>6.821000000000001</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>7.18</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0.494</v>
+      </c>
+      <c r="K97">
+        <v>0.452</v>
+      </c>
+      <c r="L97">
+        <v>0.04199999999999998</v>
+      </c>
+      <c r="M97">
+        <v>1.2530177</v>
+      </c>
+      <c r="N97">
+        <v>-1.2110177</v>
+      </c>
+      <c r="O97">
+        <v>-0.181652655</v>
+      </c>
+      <c r="P97">
+        <v>-1.029365045</v>
+      </c>
+      <c r="Q97">
+        <v>-0.5773650450000003</v>
+      </c>
+      <c r="R97">
+        <v>19.00000000000003</v>
+      </c>
+      <c r="S97">
+        <v>1.241251447123518</v>
+      </c>
+      <c r="T97">
+        <v>19.65932820458109</v>
+      </c>
+      <c r="U97">
+        <v>0.1837</v>
+      </c>
+      <c r="V97">
+        <v>0.005027861936826587</v>
+      </c>
+      <c r="W97">
+        <v>0.182776381762205</v>
+      </c>
+      <c r="X97" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y97">
+        <v>0.03351907957884392</v>
+      </c>
+      <c r="Z97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>0.96</v>
+      </c>
+      <c r="B98">
+        <v>0.2374441350302705</v>
+      </c>
+      <c r="C98">
+        <v>-4.9449384004464</v>
+      </c>
+      <c r="D98">
+        <v>1.947861599553599</v>
+      </c>
+      <c r="E98">
+        <v>6.892799999999999</v>
+      </c>
+      <c r="F98">
+        <v>6.892799999999999</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="H98">
+        <v>7.18</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>0.494</v>
+      </c>
+      <c r="K98">
+        <v>0.452</v>
+      </c>
+      <c r="L98">
+        <v>0.04199999999999998</v>
+      </c>
+      <c r="M98">
+        <v>1.26620736</v>
+      </c>
+      <c r="N98">
+        <v>-1.22420736</v>
+      </c>
+      <c r="O98">
+        <v>-0.183631104</v>
+      </c>
+      <c r="P98">
+        <v>-1.040576256</v>
+      </c>
+      <c r="Q98">
+        <v>-0.5885762559999999</v>
+      </c>
+      <c r="R98">
+        <v>23.99999999999998</v>
+      </c>
+      <c r="S98">
+        <v>1.549239308904394</v>
+      </c>
+      <c r="T98">
+        <v>24.57416025572631</v>
+      </c>
+      <c r="U98">
+        <v>0.1837</v>
+      </c>
+      <c r="V98">
+        <v>0.004975488374984645</v>
+      </c>
+      <c r="W98">
+        <v>0.1827860027855153</v>
+      </c>
+      <c r="X98" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y98">
+        <v>0.0331699224998977</v>
+      </c>
+      <c r="Z98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>0.97</v>
+      </c>
+      <c r="B99">
+        <v>0.2391881350302705</v>
+      </c>
+      <c r="C99">
+        <v>-5.03151545985912</v>
+      </c>
+      <c r="D99">
+        <v>1.933084540140879</v>
+      </c>
+      <c r="E99">
+        <v>6.9646</v>
+      </c>
+      <c r="F99">
+        <v>6.9646</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>7.18</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0.494</v>
+      </c>
+      <c r="K99">
+        <v>0.452</v>
+      </c>
+      <c r="L99">
+        <v>0.04199999999999998</v>
+      </c>
+      <c r="M99">
+        <v>1.27939702</v>
+      </c>
+      <c r="N99">
+        <v>-1.23739702</v>
+      </c>
+      <c r="O99">
+        <v>-0.185609553</v>
+      </c>
+      <c r="P99">
+        <v>-1.051787467</v>
+      </c>
+      <c r="Q99">
+        <v>-0.5997874670000001</v>
+      </c>
+      <c r="R99">
+        <v>32.33333333333331</v>
+      </c>
+      <c r="S99">
+        <v>2.062552411872525</v>
+      </c>
+      <c r="T99">
+        <v>32.76554700763508</v>
+      </c>
+      <c r="U99">
+        <v>0.1837</v>
+      </c>
+      <c r="V99">
+        <v>0.004924194680397174</v>
+      </c>
+      <c r="W99">
+        <v>0.182795425437211</v>
+      </c>
+      <c r="X99" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y99">
+        <v>0.03282796453598125</v>
+      </c>
+      <c r="Z99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>0.98</v>
+      </c>
+      <c r="B100">
+        <v>0.2409321350302705</v>
+      </c>
+      <c r="C100">
+        <v>-5.117870000996363</v>
+      </c>
+      <c r="D100">
+        <v>1.918529999003636</v>
+      </c>
+      <c r="E100">
+        <v>7.0364</v>
+      </c>
+      <c r="F100">
+        <v>7.0364</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>7.18</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0.494</v>
+      </c>
+      <c r="K100">
+        <v>0.452</v>
+      </c>
+      <c r="L100">
+        <v>0.04199999999999998</v>
+      </c>
+      <c r="M100">
+        <v>1.29258668</v>
+      </c>
+      <c r="N100">
+        <v>-1.25058668</v>
+      </c>
+      <c r="O100">
+        <v>-0.187588002</v>
+      </c>
+      <c r="P100">
+        <v>-1.062998678</v>
+      </c>
+      <c r="Q100">
+        <v>-0.6109986779999999</v>
+      </c>
+      <c r="R100">
+        <v>48.99999999999996</v>
+      </c>
+      <c r="S100">
+        <v>3.089178617808787</v>
+      </c>
+      <c r="T100">
+        <v>49.14832051145261</v>
+      </c>
+      <c r="U100">
+        <v>0.1837</v>
+      </c>
+      <c r="V100">
+        <v>0.004873947795903326</v>
+      </c>
+      <c r="W100">
+        <v>0.1828046557898926</v>
+      </c>
+      <c r="X100" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y100">
+        <v>0.03249298530602218</v>
+      </c>
+      <c r="Z100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>0.99</v>
+      </c>
+      <c r="B101">
+        <v>0.2426761350302705</v>
+      </c>
+      <c r="C101">
+        <v>-5.204007012438551</v>
+      </c>
+      <c r="D101">
+        <v>1.904192987561449</v>
+      </c>
+      <c r="E101">
+        <v>7.1082</v>
+      </c>
+      <c r="F101">
+        <v>7.1082</v>
+      </c>
+      <c r="G101">
+        <v>0</v>
+      </c>
+      <c r="H101">
+        <v>7.18</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>0.494</v>
+      </c>
+      <c r="K101">
+        <v>0.452</v>
+      </c>
+      <c r="L101">
+        <v>0.04199999999999998</v>
+      </c>
+      <c r="M101">
+        <v>1.30577634</v>
+      </c>
+      <c r="N101">
+        <v>-1.26377634</v>
+      </c>
+      <c r="O101">
+        <v>-0.189566451</v>
+      </c>
+      <c r="P101">
+        <v>-1.074209889</v>
+      </c>
+      <c r="Q101">
+        <v>-0.6222098890000001</v>
+      </c>
+      <c r="R101">
+        <v>98.99999999999991</v>
+      </c>
+      <c r="S101">
+        <v>6.169057235617574</v>
+      </c>
+      <c r="T101">
+        <v>98.29664102290522</v>
+      </c>
+      <c r="U101">
+        <v>0.1837</v>
+      </c>
+      <c r="V101">
+        <v>0.00482471599998511</v>
+      </c>
+      <c r="W101">
+        <v>0.1828136996708027</v>
+      </c>
+      <c r="X101" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y101">
+        <v>0.03216477333323409</v>
+      </c>
+      <c r="Z101">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
